--- a/Midterm-exam/evidence/spreadsheets/per_site/www.enebakk.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.enebakk.kommune.no.xlsx
@@ -445,34 +445,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13997.817</v>
+        <v>13676.476999999995</v>
       </c>
       <c r="C2">
-        <v>6324.594999999999</v>
+        <v>6370.362000000001</v>
       </c>
       <c r="D2">
         <v>56</v>
       </c>
       <c r="E2">
-        <v>14247.601</v>
+        <v>13910.238499999998</v>
       </c>
       <c r="F2">
-        <v>83</v>
+        <v>105.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7468.382225301364</v>
+        <v>7471.534943471009</v>
       </c>
       <c r="I2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2">
-        <v>3252285</v>
+        <v>3237504</v>
       </c>
       <c r="K2">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -480,34 +480,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13924.776000000002</v>
+        <v>13662.220000000001</v>
       </c>
       <c r="C3">
-        <v>6253.025999999999</v>
+        <v>6259.244499999999</v>
       </c>
       <c r="D3">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>14179.186200000004</v>
+        <v>13909.445600000003</v>
       </c>
       <c r="F3">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7301.079559203841</v>
+        <v>6259.244499999999</v>
       </c>
       <c r="I3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>3252295</v>
+        <v>3237452</v>
       </c>
       <c r="K3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -515,34 +515,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13955.109</v>
+        <v>13737.0045</v>
       </c>
       <c r="C4">
-        <v>6320.985000000001</v>
+        <v>6257.005000000001</v>
       </c>
       <c r="D4">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>14204.453000000001</v>
+        <v>13991.44275</v>
       </c>
       <c r="F4">
-        <v>87.5</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7447.634431801448</v>
+        <v>7296.138123997267</v>
       </c>
       <c r="I4">
         <v>58</v>
       </c>
       <c r="J4">
-        <v>3252288</v>
+        <v>3237494</v>
       </c>
       <c r="K4">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -550,34 +550,34 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>13955.109</v>
+        <v>13676.476999999995</v>
       </c>
       <c r="C5">
-        <v>6320.985000000001</v>
+        <v>6259.244499999999</v>
       </c>
       <c r="D5">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>14204.453000000001</v>
+        <v>13910.238499999998</v>
       </c>
       <c r="F5">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7447.634431801448</v>
+        <v>7296.138123997267</v>
       </c>
       <c r="I5">
         <v>58</v>
       </c>
       <c r="J5">
-        <v>3252288</v>
+        <v>3237494</v>
       </c>
       <c r="K5">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>18007</v>
+        <v>17800</v>
       </c>
       <c r="F2">
-        <v>53057</v>
+        <v>52728</v>
       </c>
       <c r="G2">
-        <v>0.005236669690999999</v>
+        <v>0.005176471399999999</v>
       </c>
       <c r="H2">
-        <v>0.006898146769800001</v>
+        <v>0.00681884892</v>
       </c>
     </row>
     <row r="3">
@@ -1128,16 +1128,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E21">
-        <v>147065</v>
+        <v>146860</v>
       </c>
       <c r="F21">
-        <v>432895</v>
+        <v>432390</v>
       </c>
       <c r="G21">
-        <v>0.04276841384499999</v>
+        <v>0.042708797179999994</v>
       </c>
       <c r="H21">
-        <v>0.05633786609099999</v>
+        <v>0.05625933440400001</v>
       </c>
     </row>
     <row r="22">
@@ -1223,25 +1223,25 @@
         <v>1</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i77a9ca57-bf72-47b4-8a46-289330d941c8/w300/k89cf5ad3abd9/img_0626.JPG</v>
+        <v>https://www.enebakk.kommune.no/WebResource.axd?d=7rPTPPhSWcuL8OZTfbYszfLlE1LYVFB0bYY1lR1XAYPmQhFMz6H9yiXe6CZz0GvM5ytVvLRY_hpmJYmCxEh2bCKxGAh8ApoDvAvE0duQInE1&amp;t=638901608248157332</v>
       </c>
       <c r="C25" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D25" t="str">
-        <v>image/jpeg</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E25">
-        <v>14370</v>
+        <v>6354</v>
       </c>
       <c r="F25">
-        <v>13993</v>
+        <v>23063</v>
       </c>
       <c r="G25">
-        <v>0.00417898281</v>
+        <v>0.0018478258019999998</v>
       </c>
       <c r="H25">
-        <v>0.005504879718</v>
+        <v>0.0024340992156</v>
       </c>
     </row>
     <row r="26">
@@ -1249,25 +1249,25 @@
         <v>1</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.enebakk.kommune.no/WebResource.axd?d=7rPTPPhSWcuL8OZTfbYszfLlE1LYVFB0bYY1lR1XAYPmQhFMz6H9yiXe6CZz0GvM5ytVvLRY_hpmJYmCxEh2bCKxGAh8ApoDvAvE0duQInE1&amp;t=638901608248157332</v>
+        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/ScriptHandler.ashx?bundle=lightbox&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
       </c>
       <c r="C26" t="str">
         <v>Script</v>
       </c>
       <c r="D26" t="str">
-        <v>application/x-javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E26">
-        <v>6354</v>
+        <v>10175</v>
       </c>
       <c r="F26">
-        <v>23063</v>
+        <v>43086</v>
       </c>
       <c r="G26">
-        <v>0.0018478258019999998</v>
+        <v>0.0029590222749999997</v>
       </c>
       <c r="H26">
-        <v>0.0024340992156</v>
+        <v>0.0038978532450000005</v>
       </c>
     </row>
     <row r="27">
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/ScriptHandler.ashx?bundle=lightbox&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/TranslationHandler.ashx?portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
       </c>
       <c r="C27" t="str">
         <v>Script</v>
@@ -1284,16 +1284,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E27">
-        <v>10175</v>
+        <v>1343</v>
       </c>
       <c r="F27">
-        <v>43086</v>
+        <v>3344</v>
       </c>
       <c r="G27">
-        <v>0.0029590222749999997</v>
+        <v>0.00039056185899999997</v>
       </c>
       <c r="H27">
-        <v>0.0038978532450000005</v>
+        <v>0.0005144783202000002</v>
       </c>
     </row>
     <row r="28">
@@ -1301,25 +1301,25 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/TranslationHandler.ashx?portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/script/jQuery/jquery.cookie.js</v>
       </c>
       <c r="C28" t="str">
         <v>Script</v>
       </c>
       <c r="D28" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E28">
-        <v>1343</v>
+        <v>1237</v>
       </c>
       <c r="F28">
-        <v>3344</v>
+        <v>1576</v>
       </c>
       <c r="G28">
-        <v>0.00039056185899999997</v>
+        <v>0.00035973568099999996</v>
       </c>
       <c r="H28">
-        <v>0.0005144783202000002</v>
+        <v>0.00047387169180000016</v>
       </c>
     </row>
     <row r="29">
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="str">
-        <v>https://www.enebakk.kommune.no/script/jQuery/jquery.cookie.js</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/js/scripts.js?v=v17.9.04283</v>
       </c>
       <c r="C29" t="str">
         <v>Script</v>
@@ -1336,16 +1336,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E29">
-        <v>1237</v>
+        <v>1389</v>
       </c>
       <c r="F29">
-        <v>1576</v>
+        <v>2185</v>
       </c>
       <c r="G29">
-        <v>0.00035973568099999996</v>
+        <v>0.00040393925699999997</v>
       </c>
       <c r="H29">
-        <v>0.00047387169180000016</v>
+        <v>0.0005321000646</v>
       </c>
     </row>
     <row r="30">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/js/scripts.js?v=v17.9.04283</v>
+        <v>https://www.enebakk.kommune.no/script/js/jsinfo.min.js?v=1.1</v>
       </c>
       <c r="C30" t="str">
         <v>Script</v>
@@ -1362,16 +1362,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E30">
-        <v>1389</v>
+        <v>2622</v>
       </c>
       <c r="F30">
-        <v>2185</v>
+        <v>5038</v>
       </c>
       <c r="G30">
-        <v>0.00040393925699999997</v>
+        <v>0.000762511686</v>
       </c>
       <c r="H30">
-        <v>0.0005321000646</v>
+        <v>0.0010044394308</v>
       </c>
     </row>
     <row r="31">
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/jsinfo.min.js?v=1.1</v>
+        <v>https://www.enebakk.kommune.no/script/js/beredskap.js</v>
       </c>
       <c r="C31" t="str">
         <v>Script</v>
@@ -1388,16 +1388,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E31">
-        <v>2622</v>
+        <v>2312</v>
       </c>
       <c r="F31">
-        <v>5038</v>
+        <v>4807</v>
       </c>
       <c r="G31">
-        <v>0.000762511686</v>
+        <v>0.000672359656</v>
       </c>
       <c r="H31">
-        <v>0.0010044394308</v>
+        <v>0.0008856841968000002</v>
       </c>
     </row>
     <row r="32">
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/beredskap.js</v>
+        <v>https://www.enebakk.kommune.no/script/eventbus/eventbus.min.js</v>
       </c>
       <c r="C32" t="str">
         <v>Script</v>
@@ -1414,16 +1414,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E32">
-        <v>2312</v>
+        <v>894</v>
       </c>
       <c r="F32">
-        <v>4807</v>
+        <v>1036</v>
       </c>
       <c r="G32">
-        <v>0.000672359656</v>
+        <v>0.00025998682199999994</v>
       </c>
       <c r="H32">
-        <v>0.0008856841968000002</v>
+        <v>0.0003424747716000001</v>
       </c>
     </row>
     <row r="33">
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>https://www.enebakk.kommune.no/script/eventbus/eventbus.min.js</v>
+        <v>https://www.enebakk.kommune.no/templates/design/assets/js/common.js?v=v17.9.04283</v>
       </c>
       <c r="C33" t="str">
         <v>Script</v>
@@ -1440,16 +1440,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E33">
-        <v>894</v>
+        <v>665</v>
       </c>
       <c r="F33">
-        <v>1036</v>
+        <v>309</v>
       </c>
       <c r="G33">
-        <v>0.00025998682199999994</v>
+        <v>0.000193390645</v>
       </c>
       <c r="H33">
-        <v>0.0003424747716000001</v>
+        <v>0.00025474913100000004</v>
       </c>
     </row>
     <row r="34">
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <v>https://www.enebakk.kommune.no/templates/design/assets/js/common.js?v=v17.9.04283</v>
+        <v>https://www.enebakk.kommune.no/script/js/login.e9fcj.js</v>
       </c>
       <c r="C34" t="str">
         <v>Script</v>
@@ -1466,16 +1466,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E34">
-        <v>665</v>
+        <v>986</v>
       </c>
       <c r="F34">
-        <v>309</v>
+        <v>1511</v>
       </c>
       <c r="G34">
-        <v>0.000193390645</v>
+        <v>0.00028674161799999994</v>
       </c>
       <c r="H34">
-        <v>0.00025474913100000004</v>
+        <v>0.0003777182604</v>
       </c>
     </row>
     <row r="35">
@@ -1483,25 +1483,25 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/login.e9fcj.js</v>
+        <v>https://fonts.googleapis.com/css2?family=Archivo:wght@400;500;600;700;800;900&amp;display=swap</v>
       </c>
       <c r="C35" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D35" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E35">
-        <v>986</v>
+        <v>1072</v>
       </c>
       <c r="F35">
-        <v>1511</v>
+        <v>8190</v>
       </c>
       <c r="G35">
-        <v>0.00028674161799999994</v>
+        <v>0.00031175153599999995</v>
       </c>
       <c r="H35">
-        <v>0.0003777182604</v>
+        <v>0.00041066326080000005</v>
       </c>
     </row>
     <row r="36">
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Archivo:wght@400;500;600;700;800;900&amp;display=swap</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.css</v>
       </c>
       <c r="C36" t="str">
         <v>Stylesheet</v>
@@ -1518,16 +1518,16 @@
         <v>text/css</v>
       </c>
       <c r="E36">
-        <v>1072</v>
+        <v>14043</v>
       </c>
       <c r="F36">
-        <v>8190</v>
+        <v>110438</v>
       </c>
       <c r="G36">
-        <v>0.00031175153599999995</v>
+        <v>0.004083886958999999</v>
       </c>
       <c r="H36">
-        <v>0.00041066326080000005</v>
+        <v>0.005379612100200001</v>
       </c>
     </row>
     <row r="37">
@@ -1535,25 +1535,22 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.css</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5bc1v9117441254za200zd9117441254&amp;_p=1763140479435&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1538566943.1763140479&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105391252~115583767~115938466~115938468~116217636~116217638~116251935~116251937&amp;sid=1763140479&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=1707</v>
       </c>
       <c r="C37" t="str">
-        <v>Stylesheet</v>
+        <v>Fetch</v>
       </c>
       <c r="D37" t="str">
-        <v>text/css</v>
+        <v>text/plain</v>
       </c>
       <c r="E37">
-        <v>14042</v>
-      </c>
-      <c r="F37">
-        <v>110438</v>
+        <v>554</v>
       </c>
       <c r="G37">
-        <v>0.004083596145999999</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H37">
-        <v>0.005379229018800001</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="38">
@@ -1561,22 +1558,25 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5b71v9117441254za200zd9117441254&amp;_p=1762813797992&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=959309534.1762813798&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528501~104684208~104684211~105322303~115583767~115616985~115938465~115938469~116217636~116217638&amp;sid=1762813797&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=1716</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i538f6d04-8d45-48e2-88d7-f99cfb90ae07/w2329/h1865/q508/keb12434e464f/20221029_ignagard-sykehjem_023-2.jpg</v>
       </c>
       <c r="C38" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D38" t="str">
-        <v>text/plain</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E38">
-        <v>554</v>
+        <v>679489</v>
+      </c>
+      <c r="F38">
+        <v>679087</v>
       </c>
       <c r="G38">
-        <v>0.00016111040199999997</v>
+        <v>0.19760423455699996</v>
       </c>
       <c r="H38">
-        <v>0.0002122270956</v>
+        <v>0.26029959740460007</v>
       </c>
     </row>
     <row r="39">
@@ -1584,25 +1584,25 @@
         <v>1</v>
       </c>
       <c r="B39" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i538f6d04-8d45-48e2-88d7-f99cfb90ae07/w2329/h1865/q508/keb12434e464f/20221029_ignagard-sykehjem_023-2.jpg</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i7f526b2f-cb4b-4c99-b507-45e904a9e219/w1088/h610/q806/k0b1ff9a33b95/flateby-sentrum-syd.png</v>
       </c>
       <c r="C39" t="str">
         <v>Image</v>
       </c>
       <c r="D39" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E39">
-        <v>679489</v>
+        <v>1233227</v>
       </c>
       <c r="F39">
-        <v>679087</v>
+        <v>1232838</v>
       </c>
       <c r="G39">
-        <v>0.19760423455699996</v>
+        <v>0.358638443551</v>
       </c>
       <c r="H39">
-        <v>0.26029959740460007</v>
+        <v>0.47242632567779996</v>
       </c>
     </row>
     <row r="40">
@@ -1610,25 +1610,25 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i7f526b2f-cb4b-4c99-b507-45e904a9e219/w1088/h610/q806/k0b1ff9a33b95/flateby-sentrum-syd.png</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i8818d1f0-7dc7-44e6-b5e8-dba9699f99a2/w1088/h610/q477/k3ab18654a197/larer-pa-kibus.JPG</v>
       </c>
       <c r="C40" t="str">
         <v>Image</v>
       </c>
       <c r="D40" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E40">
-        <v>1233227</v>
+        <v>97686</v>
       </c>
       <c r="F40">
-        <v>1232838</v>
+        <v>97303</v>
       </c>
       <c r="G40">
-        <v>0.358638443551</v>
+        <v>0.028408358717999998</v>
       </c>
       <c r="H40">
-        <v>0.47242632567779996</v>
+        <v>0.037421689640400005</v>
       </c>
     </row>
     <row r="41">
@@ -1636,25 +1636,25 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i8818d1f0-7dc7-44e6-b5e8-dba9699f99a2/w1088/h610/q477/k3ab18654a197/larer-pa-kibus.JPG</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/enebakk-illustrasjon.svg</v>
       </c>
       <c r="C41" t="str">
         <v>Image</v>
       </c>
       <c r="D41" t="str">
-        <v>image/jpeg</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E41">
-        <v>97686</v>
+        <v>174558</v>
       </c>
       <c r="F41">
-        <v>97303</v>
+        <v>174250</v>
       </c>
       <c r="G41">
-        <v>0.028408358717999998</v>
+        <v>0.05076373565399999</v>
       </c>
       <c r="H41">
-        <v>0.037421689640400005</v>
+        <v>0.0668699230212</v>
       </c>
     </row>
     <row r="42">
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/enebakk-illustrasjon.svg</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/footer-badge.svg</v>
       </c>
       <c r="C42" t="str">
         <v>Image</v>
@@ -1671,16 +1671,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E42">
-        <v>174558</v>
+        <v>8489</v>
       </c>
       <c r="F42">
-        <v>174250</v>
+        <v>8183</v>
       </c>
       <c r="G42">
-        <v>0.05076373565399999</v>
+        <v>0.0024687115569999997</v>
       </c>
       <c r="H42">
-        <v>0.0668699230212</v>
+        <v>0.0032519780046000005</v>
       </c>
     </row>
     <row r="43">
@@ -1688,25 +1688,25 @@
         <v>1</v>
       </c>
       <c r="B43" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/footer-badge.svg</v>
+        <v>https://fonts.gstatic.com/s/archivo/v25/k3kPo8UDI-1M0wlSV9XAw6lQkqWY8Q82sLydOxKsv4Rn.woff2</v>
       </c>
       <c r="C43" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D43" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E43">
-        <v>8489</v>
+        <v>34972</v>
       </c>
       <c r="F43">
-        <v>8183</v>
+        <v>34940</v>
       </c>
       <c r="G43">
-        <v>0.0024687115569999997</v>
+        <v>0.010170312235999998</v>
       </c>
       <c r="H43">
-        <v>0.0032519780046000005</v>
+        <v>0.013397122720800002</v>
       </c>
     </row>
     <row r="44">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="str">
-        <v>https://fonts.gstatic.com/s/archivo/v25/k3kPo8UDI-1M0wlSV9XAw6lQkqWY8Q82sLydOxKsv4Rn.woff2</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.woff2?t=1590207869815</v>
       </c>
       <c r="C44" t="str">
         <v>Font</v>
@@ -1723,16 +1723,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E44">
-        <v>34972</v>
+        <v>125643</v>
       </c>
       <c r="F44">
-        <v>34940</v>
+        <v>125268</v>
       </c>
       <c r="G44">
-        <v>0.010170312235999998</v>
+        <v>0.03653861775899999</v>
       </c>
       <c r="H44">
-        <v>0.013397122720800002</v>
+        <v>0.0481314963402</v>
       </c>
     </row>
     <row r="45">
@@ -1740,25 +1740,25 @@
         <v>1</v>
       </c>
       <c r="B45" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.woff2?t=1590207869815</v>
+        <v>https://www.enebakk.kommune.no/api/presentation/requestlog</v>
       </c>
       <c r="C45" t="str">
-        <v>Font</v>
+        <v>Fetch</v>
       </c>
       <c r="D45" t="str">
-        <v>font/woff2</v>
+        <v>application/json</v>
       </c>
       <c r="E45">
-        <v>125643</v>
+        <v>326</v>
       </c>
       <c r="F45">
-        <v>125268</v>
+        <v>72</v>
       </c>
       <c r="G45">
-        <v>0.03653861775899999</v>
+        <v>0.00009480503799999998</v>
       </c>
       <c r="H45">
-        <v>0.0481314963402</v>
+        <v>0.0001248845364</v>
       </c>
     </row>
     <row r="46">
@@ -1766,25 +1766,25 @@
         <v>1</v>
       </c>
       <c r="B46" t="str">
-        <v>https://www.enebakk.kommune.no/api/presentation/requestlog</v>
+        <v>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+C…</v>
       </c>
       <c r="C46" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D46" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E46">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>72</v>
+        <v>3657</v>
       </c>
       <c r="G46">
-        <v>0.00009480503799999998</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0.0001248845364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1792,25 +1792,25 @@
         <v>1</v>
       </c>
       <c r="B47" t="str">
-        <v>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+C…</v>
+        <v>data:font/truetype;charset=utf-8;base64,d09GRgABAAAAAHtoAAsAAAAAexwAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAB…</v>
       </c>
       <c r="C47" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D47" t="str">
-        <v>image/svg+xml</v>
+        <v>font/truetype</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>31592</v>
       </c>
       <c r="F47">
-        <v>3657</v>
+        <v>31592</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.009187364295999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.0121023075888</v>
       </c>
     </row>
     <row r="48">
@@ -1818,51 +1818,51 @@
         <v>1</v>
       </c>
       <c r="B48" t="str">
-        <v>data:font/truetype;charset=utf-8;base64,d09GRgABAAAAAHtoAAsAAAAAexwAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAB…</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/ic063abb1-5ef3-4dd9-976d-22dc43f2be5e/a308fenebakk-favikon.png</v>
       </c>
       <c r="C48" t="str">
-        <v>Font</v>
+        <v>Other</v>
       </c>
       <c r="D48" t="str">
-        <v>font/truetype</v>
+        <v>image/png</v>
       </c>
       <c r="E48">
-        <v>31592</v>
+        <v>13997</v>
       </c>
       <c r="F48">
-        <v>31592</v>
+        <v>13609</v>
       </c>
       <c r="G48">
-        <v>0.009187364295999999</v>
+        <v>0.004070509561</v>
       </c>
       <c r="H48">
-        <v>0.0121023075888</v>
+        <v>0.0053619903558</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/ic063abb1-5ef3-4dd9-976d-22dc43f2be5e/a308fenebakk-favikon.png</v>
+        <v>https://www.enebakk.kommune.no/</v>
       </c>
       <c r="C49" t="str">
-        <v>Other</v>
+        <v>Document</v>
       </c>
       <c r="D49" t="str">
-        <v>image/png</v>
+        <v>text/html</v>
       </c>
       <c r="E49">
-        <v>13997</v>
+        <v>17764</v>
       </c>
       <c r="F49">
-        <v>13609</v>
+        <v>52728</v>
       </c>
       <c r="G49">
-        <v>0.004070509561</v>
+        <v>0.005166002132</v>
       </c>
       <c r="H49">
-        <v>0.0053619903558</v>
+        <v>0.006805057989600001</v>
       </c>
     </row>
     <row r="50">
@@ -1870,25 +1870,25 @@
         <v>2</v>
       </c>
       <c r="B50" t="str">
-        <v>https://www.enebakk.kommune.no/</v>
+        <v>https://www.enebakk.kommune.no/templates/assets/css/default.css?v=17.9.4283</v>
       </c>
       <c r="C50" t="str">
-        <v>Document</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D50" t="str">
-        <v>text/html</v>
+        <v>text/css</v>
       </c>
       <c r="E50">
-        <v>18013</v>
+        <v>28072</v>
       </c>
       <c r="F50">
-        <v>53057</v>
+        <v>190015</v>
       </c>
       <c r="G50">
-        <v>0.005238414568999999</v>
+        <v>0.008163702535999998</v>
       </c>
       <c r="H50">
-        <v>0.0069004452582</v>
+        <v>0.010753861060800002</v>
       </c>
     </row>
     <row r="51">
@@ -1896,25 +1896,25 @@
         <v>2</v>
       </c>
       <c r="B51" t="str">
-        <v>https://www.enebakk.kommune.no/templates/assets/css/default.css?v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/ClientApp/vanilla/templates/dist/bundle.js?v=17.9.4283</v>
       </c>
       <c r="C51" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D51" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E51">
-        <v>28072</v>
+        <v>26246</v>
       </c>
       <c r="F51">
-        <v>190015</v>
+        <v>87701</v>
       </c>
       <c r="G51">
-        <v>0.008163702535999998</v>
+        <v>0.0076326779979999995</v>
       </c>
       <c r="H51">
-        <v>0.010753861060800002</v>
+        <v>0.010054354424400003</v>
       </c>
     </row>
     <row r="52">
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="str">
-        <v>https://www.enebakk.kommune.no/ClientApp/vanilla/templates/dist/bundle.js?v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/ClientApp/vanilla/web-component-library/dist/index.js</v>
       </c>
       <c r="C52" t="str">
         <v>Script</v>
@@ -1931,16 +1931,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E52">
-        <v>26246</v>
+        <v>12026</v>
       </c>
       <c r="F52">
-        <v>87701</v>
+        <v>30599</v>
       </c>
       <c r="G52">
-        <v>0.0076326779979999995</v>
+        <v>0.0034973171379999992</v>
       </c>
       <c r="H52">
-        <v>0.010054354424400003</v>
+        <v>0.0046069369164</v>
       </c>
     </row>
     <row r="53">
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="str">
-        <v>https://www.enebakk.kommune.no/ClientApp/vanilla/web-component-library/dist/index.js</v>
+        <v>https://www.enebakk.kommune.no/clientapp/reactjs-front/shared-components/dist/acos-shared-components.umd.js</v>
       </c>
       <c r="C53" t="str">
         <v>Script</v>
@@ -1957,16 +1957,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E53">
-        <v>12026</v>
+        <v>406430</v>
       </c>
       <c r="F53">
-        <v>30599</v>
+        <v>1578908</v>
       </c>
       <c r="G53">
-        <v>0.0034973171379999992</v>
+        <v>0.11819512758999998</v>
       </c>
       <c r="H53">
-        <v>0.0046069369164</v>
+        <v>0.15569577340200003</v>
       </c>
     </row>
     <row r="54">
@@ -1974,25 +1974,25 @@
         <v>2</v>
       </c>
       <c r="B54" t="str">
-        <v>https://www.enebakk.kommune.no/clientapp/reactjs-front/shared-components/dist/acos-shared-components.umd.js</v>
+        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-typography.css?v=20250526</v>
       </c>
       <c r="C54" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D54" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E54">
-        <v>406430</v>
+        <v>558</v>
       </c>
       <c r="F54">
-        <v>1578908</v>
+        <v>267</v>
       </c>
       <c r="G54">
-        <v>0.11819512758999998</v>
+        <v>0.00016227365399999999</v>
       </c>
       <c r="H54">
-        <v>0.15569577340200003</v>
+        <v>0.0002137594212</v>
       </c>
     </row>
     <row r="55">
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="str">
-        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-typography.css?v=20250526</v>
+        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-skip-to-links.css?v=20230510</v>
       </c>
       <c r="C55" t="str">
         <v>Stylesheet</v>
@@ -2009,16 +2009,16 @@
         <v>text/css</v>
       </c>
       <c r="E55">
-        <v>558</v>
+        <v>878</v>
       </c>
       <c r="F55">
-        <v>267</v>
+        <v>1352</v>
       </c>
       <c r="G55">
-        <v>0.00016227365399999999</v>
+        <v>0.00025533381399999995</v>
       </c>
       <c r="H55">
-        <v>0.0002137594212</v>
+        <v>0.0003363454692</v>
       </c>
     </row>
     <row r="56">
@@ -2026,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="str">
-        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-skip-to-links.css?v=20230510</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.min.css</v>
       </c>
       <c r="C56" t="str">
         <v>Stylesheet</v>
@@ -2035,16 +2035,16 @@
         <v>text/css</v>
       </c>
       <c r="E56">
-        <v>878</v>
+        <v>19904</v>
       </c>
       <c r="F56">
-        <v>1352</v>
+        <v>134048</v>
       </c>
       <c r="G56">
-        <v>0.00025533381399999995</v>
+        <v>0.005788341951999999</v>
       </c>
       <c r="H56">
-        <v>0.0003363454692</v>
+        <v>0.007624852185600002</v>
       </c>
     </row>
     <row r="57">
@@ -2052,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.min.css</v>
+        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-tabfocus-styles.css?v=20250331</v>
       </c>
       <c r="C57" t="str">
         <v>Stylesheet</v>
@@ -2061,16 +2061,16 @@
         <v>text/css</v>
       </c>
       <c r="E57">
-        <v>19904</v>
+        <v>1180</v>
       </c>
       <c r="F57">
-        <v>134048</v>
+        <v>3772</v>
       </c>
       <c r="G57">
-        <v>0.005788341951999999</v>
+        <v>0.00034315934</v>
       </c>
       <c r="H57">
-        <v>0.007624852185600002</v>
+        <v>0.00045203605199999996</v>
       </c>
     </row>
     <row r="58">
@@ -2078,25 +2078,25 @@
         <v>2</v>
       </c>
       <c r="B58" t="str">
-        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-tabfocus-styles.css?v=20250331</v>
+        <v>https://www.enebakk.kommune.no/script/jQuery/jquery-1.12.4.min.js</v>
       </c>
       <c r="C58" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D58" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E58">
-        <v>1180</v>
+        <v>43688</v>
       </c>
       <c r="F58">
-        <v>3772</v>
+        <v>97169</v>
       </c>
       <c r="G58">
-        <v>0.00034315934</v>
+        <v>0.012705038343999999</v>
       </c>
       <c r="H58">
-        <v>0.00045203605199999996</v>
+        <v>0.016736060203200002</v>
       </c>
     </row>
     <row r="59">
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="str">
-        <v>https://www.enebakk.kommune.no/script/jQuery/jquery-1.12.4.min.js</v>
+        <v>https://www.enebakk.kommune.no/script/jQuery/jquery-migrate-1.4.1.min.js</v>
       </c>
       <c r="C59" t="str">
         <v>Script</v>
@@ -2113,16 +2113,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E59">
-        <v>43688</v>
+        <v>5181</v>
       </c>
       <c r="F59">
-        <v>97169</v>
+        <v>10057</v>
       </c>
       <c r="G59">
-        <v>0.012705038343999999</v>
+        <v>0.0015067021529999998</v>
       </c>
       <c r="H59">
-        <v>0.016736060203200002</v>
+        <v>0.0019847447334000005</v>
       </c>
     </row>
     <row r="60">
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="str">
-        <v>https://www.enebakk.kommune.no/script/jQuery/jquery-migrate-1.4.1.min.js</v>
+        <v>https://www.enebakk.kommune.no/script/js/basefunksjoner.js?v=20210408</v>
       </c>
       <c r="C60" t="str">
         <v>Script</v>
@@ -2139,16 +2139,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E60">
-        <v>5181</v>
+        <v>5349</v>
       </c>
       <c r="F60">
-        <v>10057</v>
+        <v>13616</v>
       </c>
       <c r="G60">
-        <v>0.0015067021529999998</v>
+        <v>0.0015555587369999997</v>
       </c>
       <c r="H60">
-        <v>0.0019847447334000005</v>
+        <v>0.0020491024086000003</v>
       </c>
     </row>
     <row r="61">
@@ -2156,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/basefunksjoner.js?v=20210408</v>
+        <v>https://www.enebakk.kommune.no/script/jQuery/jquery.acos.js?v=20102020</v>
       </c>
       <c r="C61" t="str">
         <v>Script</v>
@@ -2165,16 +2165,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E61">
-        <v>5349</v>
+        <v>3150</v>
       </c>
       <c r="F61">
-        <v>13616</v>
+        <v>8009</v>
       </c>
       <c r="G61">
-        <v>0.0015555587369999997</v>
+        <v>0.0009160609499999999</v>
       </c>
       <c r="H61">
-        <v>0.0020491024086000003</v>
+        <v>0.00120670641</v>
       </c>
     </row>
     <row r="62">
@@ -2182,25 +2182,25 @@
         <v>2</v>
       </c>
       <c r="B62" t="str">
-        <v>https://www.enebakk.kommune.no/script/jQuery/jquery.acos.js?v=20102020</v>
+        <v>https://www.enebakk.kommune.no/kunde/css/knapper/buttons.css</v>
       </c>
       <c r="C62" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D62" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E62">
-        <v>3150</v>
+        <v>937</v>
       </c>
       <c r="F62">
-        <v>8009</v>
+        <v>1642</v>
       </c>
       <c r="G62">
-        <v>0.0009160609499999999</v>
+        <v>0.00027249178099999995</v>
       </c>
       <c r="H62">
-        <v>0.00120670641</v>
+        <v>0.0003589472718</v>
       </c>
     </row>
     <row r="63">
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.enebakk.kommune.no/kunde/css/knapper/buttons.css</v>
+        <v>https://www.enebakk.kommune.no/css/Knapper/button-icons.css</v>
       </c>
       <c r="C63" t="str">
         <v>Stylesheet</v>
@@ -2217,16 +2217,16 @@
         <v>text/css</v>
       </c>
       <c r="E63">
-        <v>937</v>
+        <v>1136</v>
       </c>
       <c r="F63">
-        <v>1642</v>
+        <v>3044</v>
       </c>
       <c r="G63">
-        <v>0.00027249178099999995</v>
+        <v>0.0003303635679999999</v>
       </c>
       <c r="H63">
-        <v>0.0003589472718</v>
+        <v>0.0004351804704</v>
       </c>
     </row>
     <row r="64">
@@ -2234,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.enebakk.kommune.no/css/Knapper/button-icons.css</v>
+        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=lightbox&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
       </c>
       <c r="C64" t="str">
         <v>Stylesheet</v>
@@ -2243,16 +2243,16 @@
         <v>text/css</v>
       </c>
       <c r="E64">
-        <v>1136</v>
+        <v>27628</v>
       </c>
       <c r="F64">
-        <v>3044</v>
+        <v>49533</v>
       </c>
       <c r="G64">
-        <v>0.0003303635679999999</v>
+        <v>0.008034581564</v>
       </c>
       <c r="H64">
-        <v>0.0004351804704</v>
+        <v>0.0105837729192</v>
       </c>
     </row>
     <row r="65">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=lightbox&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/Maler/Default/assets/css/themes/default/default.css?v=17.9.4283</v>
       </c>
       <c r="C65" t="str">
         <v>Stylesheet</v>
@@ -2269,16 +2269,16 @@
         <v>text/css</v>
       </c>
       <c r="E65">
-        <v>27628</v>
+        <v>797</v>
       </c>
       <c r="F65">
-        <v>49533</v>
+        <v>1957</v>
       </c>
       <c r="G65">
-        <v>0.008034581564</v>
+        <v>0.00023177796099999997</v>
       </c>
       <c r="H65">
-        <v>0.0105837729192</v>
+        <v>0.0003053158758</v>
       </c>
     </row>
     <row r="66">
@@ -2286,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Default/assets/css/themes/default/default.css?v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=signature&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
       </c>
       <c r="C66" t="str">
         <v>Stylesheet</v>
@@ -2295,16 +2295,16 @@
         <v>text/css</v>
       </c>
       <c r="E66">
-        <v>797</v>
+        <v>6164</v>
       </c>
       <c r="F66">
-        <v>1957</v>
+        <v>43867</v>
       </c>
       <c r="G66">
-        <v>0.00023177796099999997</v>
+        <v>0.0017925713319999997</v>
       </c>
       <c r="H66">
-        <v>0.0003053158758</v>
+        <v>0.0023613137496</v>
       </c>
     </row>
     <row r="67">
@@ -2312,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=signature&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/css/enebakk.css?v=v17.9.04283</v>
       </c>
       <c r="C67" t="str">
         <v>Stylesheet</v>
@@ -2321,16 +2321,16 @@
         <v>text/css</v>
       </c>
       <c r="E67">
-        <v>6164</v>
+        <v>19337</v>
       </c>
       <c r="F67">
-        <v>43867</v>
+        <v>111006</v>
       </c>
       <c r="G67">
-        <v>0.0017925713319999997</v>
+        <v>0.005623450980999999</v>
       </c>
       <c r="H67">
-        <v>0.0023613137496</v>
+        <v>0.007407645031800003</v>
       </c>
     </row>
     <row r="68">
@@ -2338,25 +2338,25 @@
         <v>2</v>
       </c>
       <c r="B68" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/css/enebakk.css?v=v17.9.04283</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-N27G0MY2MK</v>
       </c>
       <c r="C68" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D68" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E68">
-        <v>19337</v>
+        <v>146845</v>
       </c>
       <c r="F68">
-        <v>111006</v>
+        <v>432370</v>
       </c>
       <c r="G68">
-        <v>0.005623450980999999</v>
+        <v>0.042704434985</v>
       </c>
       <c r="H68">
-        <v>0.007407645031800003</v>
+        <v>0.056253588183000004</v>
       </c>
     </row>
     <row r="69">
@@ -2364,25 +2364,25 @@
         <v>2</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-N27G0MY2MK</v>
+        <v>https://www.enebakk.kommune.no/css/css.ashx?style=artikkel</v>
       </c>
       <c r="C69" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D69" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E69">
-        <v>147069</v>
+        <v>7080</v>
       </c>
       <c r="F69">
-        <v>432895</v>
+        <v>21639</v>
       </c>
       <c r="G69">
-        <v>0.042769577096999994</v>
+        <v>0.0020589560399999996</v>
       </c>
       <c r="H69">
-        <v>0.0563393984166</v>
+        <v>0.0027122163120000004</v>
       </c>
     </row>
     <row r="70">
@@ -2390,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.enebakk.kommune.no/css/css.ashx?style=artikkel</v>
+        <v>https://www.enebakk.kommune.no/css/css.ashx?style=login</v>
       </c>
       <c r="C70" t="str">
         <v>Stylesheet</v>
@@ -2399,16 +2399,16 @@
         <v>text/css</v>
       </c>
       <c r="E70">
-        <v>7080</v>
+        <v>3657</v>
       </c>
       <c r="F70">
-        <v>21639</v>
+        <v>5649</v>
       </c>
       <c r="G70">
-        <v>0.0020589560399999996</v>
+        <v>0.0010635031409999998</v>
       </c>
       <c r="H70">
-        <v>0.0027122163120000004</v>
+        <v>0.0014009286798000002</v>
       </c>
     </row>
     <row r="71">
@@ -2416,25 +2416,25 @@
         <v>2</v>
       </c>
       <c r="B71" t="str">
-        <v>https://www.enebakk.kommune.no/css/css.ashx?style=login</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i361f84a6-a9b4-48c0-8c08-89213d2964ea/498fdenebakk-logo-sekundar-mork.svg</v>
       </c>
       <c r="C71" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D71" t="str">
-        <v>text/css</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E71">
-        <v>3657</v>
+        <v>9821</v>
       </c>
       <c r="F71">
-        <v>5649</v>
+        <v>9419</v>
       </c>
       <c r="G71">
-        <v>0.0010635031409999998</v>
+        <v>0.002856074473</v>
       </c>
       <c r="H71">
-        <v>0.0014009286798000002</v>
+        <v>0.0037622424293999998</v>
       </c>
     </row>
     <row r="72">
@@ -2442,25 +2442,25 @@
         <v>2</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i361f84a6-a9b4-48c0-8c08-89213d2964ea/498fdenebakk-logo-sekundar-mork.svg</v>
+        <v>https://www.enebakk.kommune.no/WebResource.axd?d=7rPTPPhSWcuL8OZTfbYszfLlE1LYVFB0bYY1lR1XAYPmQhFMz6H9yiXe6CZz0GvM5ytVvLRY_hpmJYmCxEh2bCKxGAh8ApoDvAvE0duQInE1&amp;t=638901608248157332</v>
       </c>
       <c r="C72" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D72" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E72">
-        <v>9821</v>
+        <v>6354</v>
       </c>
       <c r="F72">
-        <v>9419</v>
+        <v>23063</v>
       </c>
       <c r="G72">
-        <v>0.002856074473</v>
+        <v>0.0018478258019999998</v>
       </c>
       <c r="H72">
-        <v>0.0037622424293999998</v>
+        <v>0.0024340992156</v>
       </c>
     </row>
     <row r="73">
@@ -2468,25 +2468,25 @@
         <v>2</v>
       </c>
       <c r="B73" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i77a9ca57-bf72-47b4-8a46-289330d941c8/w300/k89cf5ad3abd9/img_0626.JPG</v>
+        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/ScriptHandler.ashx?bundle=lightbox&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
       </c>
       <c r="C73" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D73" t="str">
-        <v>image/jpeg</v>
+        <v>text/javascript</v>
       </c>
       <c r="E73">
-        <v>14370</v>
+        <v>10175</v>
       </c>
       <c r="F73">
-        <v>13993</v>
+        <v>43086</v>
       </c>
       <c r="G73">
-        <v>0.00417898281</v>
+        <v>0.0029590222749999997</v>
       </c>
       <c r="H73">
-        <v>0.005504879718</v>
+        <v>0.0038978532450000005</v>
       </c>
     </row>
     <row r="74">
@@ -2494,25 +2494,25 @@
         <v>2</v>
       </c>
       <c r="B74" t="str">
-        <v>https://www.enebakk.kommune.no/WebResource.axd?d=7rPTPPhSWcuL8OZTfbYszfLlE1LYVFB0bYY1lR1XAYPmQhFMz6H9yiXe6CZz0GvM5ytVvLRY_hpmJYmCxEh2bCKxGAh8ApoDvAvE0duQInE1&amp;t=638901608248157332</v>
+        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/TranslationHandler.ashx?portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
       </c>
       <c r="C74" t="str">
         <v>Script</v>
       </c>
       <c r="D74" t="str">
-        <v>application/x-javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E74">
-        <v>6354</v>
+        <v>1343</v>
       </c>
       <c r="F74">
-        <v>23063</v>
+        <v>3344</v>
       </c>
       <c r="G74">
-        <v>0.0018478258019999998</v>
+        <v>0.00039056185899999997</v>
       </c>
       <c r="H74">
-        <v>0.0024340992156</v>
+        <v>0.0005144783202000002</v>
       </c>
     </row>
     <row r="75">
@@ -2520,25 +2520,25 @@
         <v>2</v>
       </c>
       <c r="B75" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/ScriptHandler.ashx?bundle=lightbox&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/script/jQuery/jquery.cookie.js</v>
       </c>
       <c r="C75" t="str">
         <v>Script</v>
       </c>
       <c r="D75" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E75">
-        <v>10175</v>
+        <v>1237</v>
       </c>
       <c r="F75">
-        <v>43086</v>
+        <v>1576</v>
       </c>
       <c r="G75">
-        <v>0.0029590222749999997</v>
+        <v>0.00035973568099999996</v>
       </c>
       <c r="H75">
-        <v>0.0038978532450000005</v>
+        <v>0.00047387169180000016</v>
       </c>
     </row>
     <row r="76">
@@ -2546,25 +2546,25 @@
         <v>2</v>
       </c>
       <c r="B76" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/TranslationHandler.ashx?portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/js/scripts.js?v=v17.9.04283</v>
       </c>
       <c r="C76" t="str">
         <v>Script</v>
       </c>
       <c r="D76" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E76">
-        <v>1343</v>
+        <v>1389</v>
       </c>
       <c r="F76">
-        <v>3344</v>
+        <v>2185</v>
       </c>
       <c r="G76">
-        <v>0.00039056185899999997</v>
+        <v>0.00040393925699999997</v>
       </c>
       <c r="H76">
-        <v>0.0005144783202000002</v>
+        <v>0.0005321000646</v>
       </c>
     </row>
     <row r="77">
@@ -2572,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="B77" t="str">
-        <v>https://www.enebakk.kommune.no/script/jQuery/jquery.cookie.js</v>
+        <v>https://www.enebakk.kommune.no/script/js/jsinfo.min.js?v=1.1</v>
       </c>
       <c r="C77" t="str">
         <v>Script</v>
@@ -2581,16 +2581,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E77">
-        <v>1237</v>
+        <v>2622</v>
       </c>
       <c r="F77">
-        <v>1576</v>
+        <v>5038</v>
       </c>
       <c r="G77">
-        <v>0.00035973568099999996</v>
+        <v>0.000762511686</v>
       </c>
       <c r="H77">
-        <v>0.00047387169180000016</v>
+        <v>0.0010044394308</v>
       </c>
     </row>
     <row r="78">
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="B78" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/js/scripts.js?v=v17.9.04283</v>
+        <v>https://www.enebakk.kommune.no/script/js/beredskap.js</v>
       </c>
       <c r="C78" t="str">
         <v>Script</v>
@@ -2607,16 +2607,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E78">
-        <v>1389</v>
+        <v>2312</v>
       </c>
       <c r="F78">
-        <v>2185</v>
+        <v>4807</v>
       </c>
       <c r="G78">
-        <v>0.00040393925699999997</v>
+        <v>0.000672359656</v>
       </c>
       <c r="H78">
-        <v>0.0005321000646</v>
+        <v>0.0008856841968000002</v>
       </c>
     </row>
     <row r="79">
@@ -2624,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/jsinfo.min.js?v=1.1</v>
+        <v>https://www.enebakk.kommune.no/script/eventbus/eventbus.min.js</v>
       </c>
       <c r="C79" t="str">
         <v>Script</v>
@@ -2633,16 +2633,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E79">
-        <v>2622</v>
+        <v>894</v>
       </c>
       <c r="F79">
-        <v>5038</v>
+        <v>1036</v>
       </c>
       <c r="G79">
-        <v>0.000762511686</v>
+        <v>0.00025998682199999994</v>
       </c>
       <c r="H79">
-        <v>0.0010044394308</v>
+        <v>0.0003424747716000001</v>
       </c>
     </row>
     <row r="80">
@@ -2650,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="B80" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/beredskap.js</v>
+        <v>https://www.enebakk.kommune.no/templates/design/assets/js/common.js?v=v17.9.04283</v>
       </c>
       <c r="C80" t="str">
         <v>Script</v>
@@ -2659,16 +2659,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E80">
-        <v>2312</v>
+        <v>665</v>
       </c>
       <c r="F80">
-        <v>4807</v>
+        <v>309</v>
       </c>
       <c r="G80">
-        <v>0.000672359656</v>
+        <v>0.000193390645</v>
       </c>
       <c r="H80">
-        <v>0.0008856841968000002</v>
+        <v>0.00025474913100000004</v>
       </c>
     </row>
     <row r="81">
@@ -2676,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="B81" t="str">
-        <v>https://www.enebakk.kommune.no/script/eventbus/eventbus.min.js</v>
+        <v>https://www.enebakk.kommune.no/script/js/login.e9fcj.js</v>
       </c>
       <c r="C81" t="str">
         <v>Script</v>
@@ -2685,16 +2685,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E81">
-        <v>894</v>
+        <v>986</v>
       </c>
       <c r="F81">
-        <v>1036</v>
+        <v>1511</v>
       </c>
       <c r="G81">
-        <v>0.00025998682199999994</v>
+        <v>0.00028674161799999994</v>
       </c>
       <c r="H81">
-        <v>0.0003424747716000001</v>
+        <v>0.0003777182604</v>
       </c>
     </row>
     <row r="82">
@@ -2702,25 +2702,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="str">
-        <v>https://www.enebakk.kommune.no/templates/design/assets/js/common.js?v=v17.9.04283</v>
+        <v>https://fonts.googleapis.com/css2?family=Archivo:wght@400;500;600;700;800;900&amp;display=swap</v>
       </c>
       <c r="C82" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D82" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E82">
-        <v>665</v>
+        <v>1072</v>
       </c>
       <c r="F82">
-        <v>309</v>
+        <v>8190</v>
       </c>
       <c r="G82">
-        <v>0.000193390645</v>
+        <v>0.00031175153599999995</v>
       </c>
       <c r="H82">
-        <v>0.00025474913100000004</v>
+        <v>0.00041066326080000005</v>
       </c>
     </row>
     <row r="83">
@@ -2728,25 +2728,25 @@
         <v>2</v>
       </c>
       <c r="B83" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/login.e9fcj.js</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.css</v>
       </c>
       <c r="C83" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D83" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E83">
-        <v>986</v>
+        <v>14042</v>
       </c>
       <c r="F83">
-        <v>1511</v>
+        <v>110438</v>
       </c>
       <c r="G83">
-        <v>0.00028674161799999994</v>
+        <v>0.004083596145999999</v>
       </c>
       <c r="H83">
-        <v>0.0003777182604</v>
+        <v>0.005379229018800001</v>
       </c>
     </row>
     <row r="84">
@@ -2754,25 +2754,22 @@
         <v>2</v>
       </c>
       <c r="B84" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Archivo:wght@400;500;600;700;800;900&amp;display=swap</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5bc1h1v9117441254za200zd9117441254&amp;_p=1763140493566&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=787716257.1763140494&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~105322302~115583767~115616985~115938465~115938469~116217636~116217638~116474637&amp;sid=1763140493&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=1106</v>
       </c>
       <c r="C84" t="str">
-        <v>Stylesheet</v>
+        <v>Fetch</v>
       </c>
       <c r="D84" t="str">
-        <v>text/css</v>
+        <v>text/plain</v>
       </c>
       <c r="E84">
-        <v>1072</v>
-      </c>
-      <c r="F84">
-        <v>8190</v>
+        <v>554</v>
       </c>
       <c r="G84">
-        <v>0.00031175153599999995</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H84">
-        <v>0.00041066326080000005</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="85">
@@ -2780,25 +2777,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.css</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i538f6d04-8d45-48e2-88d7-f99cfb90ae07/w2329/h1865/q508/keb12434e464f/20221029_ignagard-sykehjem_023-2.jpg</v>
       </c>
       <c r="C85" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D85" t="str">
-        <v>text/css</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E85">
-        <v>14042</v>
+        <v>679489</v>
       </c>
       <c r="F85">
-        <v>110438</v>
+        <v>679087</v>
       </c>
       <c r="G85">
-        <v>0.004083596145999999</v>
+        <v>0.19760423455699996</v>
       </c>
       <c r="H85">
-        <v>0.005379229018800001</v>
+        <v>0.26029959740460007</v>
       </c>
     </row>
     <row r="86">
@@ -2806,22 +2803,25 @@
         <v>2</v>
       </c>
       <c r="B86" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5b71h2v9117441254za200zd9117441254&amp;_p=1762813812486&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1964192524.1762813812&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527907~104528500~104684208~104684211~105391252~115583767~115616985~115938466~115938469~116217636~116217638&amp;sid=1762813812&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=1773</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i7f526b2f-cb4b-4c99-b507-45e904a9e219/w1088/h610/q806/k0b1ff9a33b95/flateby-sentrum-syd.png</v>
       </c>
       <c r="C86" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D86" t="str">
-        <v>text/plain</v>
+        <v>image/png</v>
       </c>
       <c r="E86">
-        <v>554</v>
+        <v>1233227</v>
+      </c>
+      <c r="F86">
+        <v>1232838</v>
       </c>
       <c r="G86">
-        <v>0.00016111040199999997</v>
+        <v>0.358638443551</v>
       </c>
       <c r="H86">
-        <v>0.0002122270956</v>
+        <v>0.47242632567779996</v>
       </c>
     </row>
     <row r="87">
@@ -2829,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i538f6d04-8d45-48e2-88d7-f99cfb90ae07/w2329/h1865/q508/keb12434e464f/20221029_ignagard-sykehjem_023-2.jpg</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i8818d1f0-7dc7-44e6-b5e8-dba9699f99a2/w1088/h610/q477/k3ab18654a197/larer-pa-kibus.JPG</v>
       </c>
       <c r="C87" t="str">
         <v>Image</v>
@@ -2838,16 +2838,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E87">
-        <v>679489</v>
+        <v>97686</v>
       </c>
       <c r="F87">
-        <v>679087</v>
+        <v>97303</v>
       </c>
       <c r="G87">
-        <v>0.19760423455699996</v>
+        <v>0.028408358717999998</v>
       </c>
       <c r="H87">
-        <v>0.26029959740460007</v>
+        <v>0.037421689640400005</v>
       </c>
     </row>
     <row r="88">
@@ -2855,25 +2855,25 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i7f526b2f-cb4b-4c99-b507-45e904a9e219/w1088/h610/q806/k0b1ff9a33b95/flateby-sentrum-syd.png</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/enebakk-illustrasjon.svg</v>
       </c>
       <c r="C88" t="str">
         <v>Image</v>
       </c>
       <c r="D88" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E88">
-        <v>1233227</v>
+        <v>174558</v>
       </c>
       <c r="F88">
-        <v>1232838</v>
+        <v>174250</v>
       </c>
       <c r="G88">
-        <v>0.358638443551</v>
+        <v>0.05076373565399999</v>
       </c>
       <c r="H88">
-        <v>0.47242632567779996</v>
+        <v>0.0668699230212</v>
       </c>
     </row>
     <row r="89">
@@ -2881,25 +2881,25 @@
         <v>2</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i8818d1f0-7dc7-44e6-b5e8-dba9699f99a2/w1088/h610/q477/k3ab18654a197/larer-pa-kibus.JPG</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/footer-badge.svg</v>
       </c>
       <c r="C89" t="str">
         <v>Image</v>
       </c>
       <c r="D89" t="str">
-        <v>image/jpeg</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E89">
-        <v>97686</v>
+        <v>8489</v>
       </c>
       <c r="F89">
-        <v>97303</v>
+        <v>8183</v>
       </c>
       <c r="G89">
-        <v>0.028408358717999998</v>
+        <v>0.0024687115569999997</v>
       </c>
       <c r="H89">
-        <v>0.037421689640400005</v>
+        <v>0.0032519780046000005</v>
       </c>
     </row>
     <row r="90">
@@ -2907,25 +2907,25 @@
         <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/enebakk-illustrasjon.svg</v>
+        <v>https://fonts.gstatic.com/s/archivo/v25/k3kPo8UDI-1M0wlSV9XAw6lQkqWY8Q82sLydOxKsv4Rn.woff2</v>
       </c>
       <c r="C90" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D90" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E90">
-        <v>174558</v>
+        <v>34972</v>
       </c>
       <c r="F90">
-        <v>174250</v>
+        <v>34940</v>
       </c>
       <c r="G90">
-        <v>0.05076373565399999</v>
+        <v>0.010170312235999998</v>
       </c>
       <c r="H90">
-        <v>0.0668699230212</v>
+        <v>0.013397122720800002</v>
       </c>
     </row>
     <row r="91">
@@ -2933,25 +2933,25 @@
         <v>2</v>
       </c>
       <c r="B91" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/footer-badge.svg</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.woff2?t=1590207869815</v>
       </c>
       <c r="C91" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D91" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E91">
-        <v>8489</v>
+        <v>125643</v>
       </c>
       <c r="F91">
-        <v>8183</v>
+        <v>125268</v>
       </c>
       <c r="G91">
-        <v>0.0024687115569999997</v>
+        <v>0.03653861775899999</v>
       </c>
       <c r="H91">
-        <v>0.0032519780046000005</v>
+        <v>0.0481314963402</v>
       </c>
     </row>
     <row r="92">
@@ -2959,25 +2959,25 @@
         <v>2</v>
       </c>
       <c r="B92" t="str">
-        <v>https://fonts.gstatic.com/s/archivo/v25/k3kPo8UDI-1M0wlSV9XAw6lQkqWY8Q82sLydOxKsv4Rn.woff2</v>
+        <v>https://www.enebakk.kommune.no/api/presentation/requestlog</v>
       </c>
       <c r="C92" t="str">
-        <v>Font</v>
+        <v>Fetch</v>
       </c>
       <c r="D92" t="str">
-        <v>font/woff2</v>
+        <v>application/json</v>
       </c>
       <c r="E92">
-        <v>34972</v>
+        <v>326</v>
       </c>
       <c r="F92">
-        <v>34940</v>
+        <v>72</v>
       </c>
       <c r="G92">
-        <v>0.010170312235999998</v>
+        <v>0.00009480503799999998</v>
       </c>
       <c r="H92">
-        <v>0.013397122720800002</v>
+        <v>0.0001248845364</v>
       </c>
     </row>
     <row r="93">
@@ -2985,25 +2985,25 @@
         <v>2</v>
       </c>
       <c r="B93" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.woff2?t=1590207869815</v>
+        <v>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+C…</v>
       </c>
       <c r="C93" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D93" t="str">
-        <v>font/woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E93">
-        <v>125643</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>125268</v>
+        <v>3657</v>
       </c>
       <c r="G93">
-        <v>0.03653861775899999</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0.0481314963402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3011,25 +3011,25 @@
         <v>2</v>
       </c>
       <c r="B94" t="str">
-        <v>https://www.enebakk.kommune.no/api/presentation/requestlog</v>
+        <v>data:font/truetype;charset=utf-8;base64,d09GRgABAAAAAHtoAAsAAAAAexwAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAB…</v>
       </c>
       <c r="C94" t="str">
-        <v>Fetch</v>
+        <v>Font</v>
       </c>
       <c r="D94" t="str">
-        <v>application/json</v>
+        <v>font/truetype</v>
       </c>
       <c r="E94">
-        <v>326</v>
+        <v>31592</v>
       </c>
       <c r="F94">
-        <v>72</v>
+        <v>31592</v>
       </c>
       <c r="G94">
-        <v>0.00009480503799999998</v>
+        <v>0.009187364295999999</v>
       </c>
       <c r="H94">
-        <v>0.0001248845364</v>
+        <v>0.0121023075888</v>
       </c>
     </row>
     <row r="95">
@@ -3037,77 +3037,77 @@
         <v>2</v>
       </c>
       <c r="B95" t="str">
-        <v>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+C…</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/ic063abb1-5ef3-4dd9-976d-22dc43f2be5e/a308fenebakk-favikon.png</v>
       </c>
       <c r="C95" t="str">
-        <v>Image</v>
+        <v>Other</v>
       </c>
       <c r="D95" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>13997</v>
       </c>
       <c r="F95">
-        <v>3657</v>
+        <v>13609</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.004070509561</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.0053619903558</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B96" t="str">
-        <v>data:font/truetype;charset=utf-8;base64,d09GRgABAAAAAHtoAAsAAAAAexwAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAB…</v>
+        <v>https://www.enebakk.kommune.no/</v>
       </c>
       <c r="C96" t="str">
-        <v>Font</v>
+        <v>Document</v>
       </c>
       <c r="D96" t="str">
-        <v>font/truetype</v>
+        <v>text/html</v>
       </c>
       <c r="E96">
-        <v>31592</v>
+        <v>17801</v>
       </c>
       <c r="F96">
-        <v>31592</v>
+        <v>52728</v>
       </c>
       <c r="G96">
-        <v>0.009187364295999999</v>
+        <v>0.005176762212999999</v>
       </c>
       <c r="H96">
-        <v>0.0121023075888</v>
+        <v>0.006819232001400001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/ic063abb1-5ef3-4dd9-976d-22dc43f2be5e/a308fenebakk-favikon.png</v>
+        <v>https://www.enebakk.kommune.no/templates/assets/css/default.css?v=17.9.4283</v>
       </c>
       <c r="C97" t="str">
-        <v>Other</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D97" t="str">
-        <v>image/png</v>
+        <v>text/css</v>
       </c>
       <c r="E97">
-        <v>13997</v>
+        <v>28072</v>
       </c>
       <c r="F97">
-        <v>13609</v>
+        <v>190015</v>
       </c>
       <c r="G97">
-        <v>0.004070509561</v>
+        <v>0.008163702535999998</v>
       </c>
       <c r="H97">
-        <v>0.0053619903558</v>
+        <v>0.010753861060800002</v>
       </c>
     </row>
     <row r="98">
@@ -3115,25 +3115,25 @@
         <v>3</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.enebakk.kommune.no/</v>
+        <v>https://www.enebakk.kommune.no/ClientApp/vanilla/templates/dist/bundle.js?v=17.9.4283</v>
       </c>
       <c r="C98" t="str">
-        <v>Document</v>
+        <v>Script</v>
       </c>
       <c r="D98" t="str">
-        <v>text/html</v>
+        <v>application/javascript</v>
       </c>
       <c r="E98">
-        <v>18008</v>
+        <v>26246</v>
       </c>
       <c r="F98">
-        <v>53057</v>
+        <v>87701</v>
       </c>
       <c r="G98">
-        <v>0.0052369605039999986</v>
+        <v>0.0076326779979999995</v>
       </c>
       <c r="H98">
-        <v>0.006898529851200001</v>
+        <v>0.010054354424400003</v>
       </c>
     </row>
     <row r="99">
@@ -3141,25 +3141,25 @@
         <v>3</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.enebakk.kommune.no/templates/assets/css/default.css?v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/ClientApp/vanilla/web-component-library/dist/index.js</v>
       </c>
       <c r="C99" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D99" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E99">
-        <v>28072</v>
+        <v>12026</v>
       </c>
       <c r="F99">
-        <v>190015</v>
+        <v>30599</v>
       </c>
       <c r="G99">
-        <v>0.008163702535999998</v>
+        <v>0.0034973171379999992</v>
       </c>
       <c r="H99">
-        <v>0.010753861060800002</v>
+        <v>0.0046069369164</v>
       </c>
     </row>
     <row r="100">
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="str">
-        <v>https://www.enebakk.kommune.no/ClientApp/vanilla/templates/dist/bundle.js?v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/clientapp/reactjs-front/shared-components/dist/acos-shared-components.umd.js</v>
       </c>
       <c r="C100" t="str">
         <v>Script</v>
@@ -3176,16 +3176,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E100">
-        <v>26246</v>
+        <v>406430</v>
       </c>
       <c r="F100">
-        <v>87701</v>
+        <v>1578908</v>
       </c>
       <c r="G100">
-        <v>0.0076326779979999995</v>
+        <v>0.11819512758999998</v>
       </c>
       <c r="H100">
-        <v>0.010054354424400003</v>
+        <v>0.15569577340200003</v>
       </c>
     </row>
     <row r="101">
@@ -3193,25 +3193,25 @@
         <v>3</v>
       </c>
       <c r="B101" t="str">
-        <v>https://www.enebakk.kommune.no/ClientApp/vanilla/web-component-library/dist/index.js</v>
+        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-typography.css?v=20250526</v>
       </c>
       <c r="C101" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D101" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E101">
-        <v>12026</v>
+        <v>558</v>
       </c>
       <c r="F101">
-        <v>30599</v>
+        <v>267</v>
       </c>
       <c r="G101">
-        <v>0.0034973171379999992</v>
+        <v>0.00016227365399999999</v>
       </c>
       <c r="H101">
-        <v>0.0046069369164</v>
+        <v>0.0002137594212</v>
       </c>
     </row>
     <row r="102">
@@ -3219,25 +3219,25 @@
         <v>3</v>
       </c>
       <c r="B102" t="str">
-        <v>https://www.enebakk.kommune.no/clientapp/reactjs-front/shared-components/dist/acos-shared-components.umd.js</v>
+        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-skip-to-links.css?v=20230510</v>
       </c>
       <c r="C102" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D102" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E102">
-        <v>406430</v>
+        <v>878</v>
       </c>
       <c r="F102">
-        <v>1578908</v>
+        <v>1352</v>
       </c>
       <c r="G102">
-        <v>0.11819512758999998</v>
+        <v>0.00025533381399999995</v>
       </c>
       <c r="H102">
-        <v>0.15569577340200003</v>
+        <v>0.0003363454692</v>
       </c>
     </row>
     <row r="103">
@@ -3245,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-typography.css?v=20250526</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.min.css</v>
       </c>
       <c r="C103" t="str">
         <v>Stylesheet</v>
@@ -3254,16 +3254,16 @@
         <v>text/css</v>
       </c>
       <c r="E103">
-        <v>558</v>
+        <v>19904</v>
       </c>
       <c r="F103">
-        <v>267</v>
+        <v>134048</v>
       </c>
       <c r="G103">
-        <v>0.00016227365399999999</v>
+        <v>0.005788341951999999</v>
       </c>
       <c r="H103">
-        <v>0.0002137594212</v>
+        <v>0.007624852185600002</v>
       </c>
     </row>
     <row r="104">
@@ -3271,7 +3271,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="str">
-        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-skip-to-links.css?v=20230510</v>
+        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-tabfocus-styles.css?v=20250331</v>
       </c>
       <c r="C104" t="str">
         <v>Stylesheet</v>
@@ -3280,16 +3280,16 @@
         <v>text/css</v>
       </c>
       <c r="E104">
-        <v>878</v>
+        <v>1180</v>
       </c>
       <c r="F104">
-        <v>1352</v>
+        <v>3772</v>
       </c>
       <c r="G104">
-        <v>0.00025533381399999995</v>
+        <v>0.00034315934</v>
       </c>
       <c r="H104">
-        <v>0.0003363454692</v>
+        <v>0.00045203605199999996</v>
       </c>
     </row>
     <row r="105">
@@ -3297,25 +3297,25 @@
         <v>3</v>
       </c>
       <c r="B105" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@latest/fonts/remixicon.min.css</v>
+        <v>https://www.enebakk.kommune.no/script/jQuery/jquery-1.12.4.min.js</v>
       </c>
       <c r="C105" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D105" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E105">
-        <v>19904</v>
+        <v>43688</v>
       </c>
       <c r="F105">
-        <v>134048</v>
+        <v>97169</v>
       </c>
       <c r="G105">
-        <v>0.005788341951999999</v>
+        <v>0.012705038343999999</v>
       </c>
       <c r="H105">
-        <v>0.007624852185600002</v>
+        <v>0.016736060203200002</v>
       </c>
     </row>
     <row r="106">
@@ -3323,25 +3323,25 @@
         <v>3</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.enebakk.kommune.no/templates/assets/legacy-css/default-tabfocus-styles.css?v=20250331</v>
+        <v>https://www.enebakk.kommune.no/script/jQuery/jquery-migrate-1.4.1.min.js</v>
       </c>
       <c r="C106" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D106" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E106">
-        <v>1180</v>
+        <v>5181</v>
       </c>
       <c r="F106">
-        <v>3772</v>
+        <v>10057</v>
       </c>
       <c r="G106">
-        <v>0.00034315934</v>
+        <v>0.0015067021529999998</v>
       </c>
       <c r="H106">
-        <v>0.00045203605199999996</v>
+        <v>0.0019847447334000005</v>
       </c>
     </row>
     <row r="107">
@@ -3349,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="str">
-        <v>https://www.enebakk.kommune.no/script/jQuery/jquery-1.12.4.min.js</v>
+        <v>https://www.enebakk.kommune.no/script/js/basefunksjoner.js?v=20210408</v>
       </c>
       <c r="C107" t="str">
         <v>Script</v>
@@ -3358,16 +3358,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E107">
-        <v>43688</v>
+        <v>5349</v>
       </c>
       <c r="F107">
-        <v>97169</v>
+        <v>13616</v>
       </c>
       <c r="G107">
-        <v>0.012705038343999999</v>
+        <v>0.0015555587369999997</v>
       </c>
       <c r="H107">
-        <v>0.016736060203200002</v>
+        <v>0.0020491024086000003</v>
       </c>
     </row>
     <row r="108">
@@ -3375,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="str">
-        <v>https://www.enebakk.kommune.no/script/jQuery/jquery-migrate-1.4.1.min.js</v>
+        <v>https://www.enebakk.kommune.no/script/jQuery/jquery.acos.js?v=20102020</v>
       </c>
       <c r="C108" t="str">
         <v>Script</v>
@@ -3384,16 +3384,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E108">
-        <v>5181</v>
+        <v>3150</v>
       </c>
       <c r="F108">
-        <v>10057</v>
+        <v>8009</v>
       </c>
       <c r="G108">
-        <v>0.0015067021529999998</v>
+        <v>0.0009160609499999999</v>
       </c>
       <c r="H108">
-        <v>0.0019847447334000005</v>
+        <v>0.00120670641</v>
       </c>
     </row>
     <row r="109">
@@ -3401,25 +3401,25 @@
         <v>3</v>
       </c>
       <c r="B109" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/basefunksjoner.js?v=20210408</v>
+        <v>https://www.enebakk.kommune.no/kunde/css/knapper/buttons.css</v>
       </c>
       <c r="C109" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D109" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E109">
-        <v>5349</v>
+        <v>937</v>
       </c>
       <c r="F109">
-        <v>13616</v>
+        <v>1642</v>
       </c>
       <c r="G109">
-        <v>0.0015555587369999997</v>
+        <v>0.00027249178099999995</v>
       </c>
       <c r="H109">
-        <v>0.0020491024086000003</v>
+        <v>0.0003589472718</v>
       </c>
     </row>
     <row r="110">
@@ -3427,25 +3427,25 @@
         <v>3</v>
       </c>
       <c r="B110" t="str">
-        <v>https://www.enebakk.kommune.no/script/jQuery/jquery.acos.js?v=20102020</v>
+        <v>https://www.enebakk.kommune.no/css/Knapper/button-icons.css</v>
       </c>
       <c r="C110" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D110" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E110">
-        <v>3150</v>
+        <v>1136</v>
       </c>
       <c r="F110">
-        <v>8009</v>
+        <v>3044</v>
       </c>
       <c r="G110">
-        <v>0.0009160609499999999</v>
+        <v>0.0003303635679999999</v>
       </c>
       <c r="H110">
-        <v>0.00120670641</v>
+        <v>0.0004351804704</v>
       </c>
     </row>
     <row r="111">
@@ -3453,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="B111" t="str">
-        <v>https://www.enebakk.kommune.no/kunde/css/knapper/buttons.css</v>
+        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=lightbox&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
       </c>
       <c r="C111" t="str">
         <v>Stylesheet</v>
@@ -3462,16 +3462,16 @@
         <v>text/css</v>
       </c>
       <c r="E111">
-        <v>937</v>
+        <v>27628</v>
       </c>
       <c r="F111">
-        <v>1642</v>
+        <v>49533</v>
       </c>
       <c r="G111">
-        <v>0.00027249178099999995</v>
+        <v>0.008034581564</v>
       </c>
       <c r="H111">
-        <v>0.0003589472718</v>
+        <v>0.0105837729192</v>
       </c>
     </row>
     <row r="112">
@@ -3479,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="B112" t="str">
-        <v>https://www.enebakk.kommune.no/css/Knapper/button-icons.css</v>
+        <v>https://www.enebakk.kommune.no/Maler/Default/assets/css/themes/default/default.css?v=17.9.4283</v>
       </c>
       <c r="C112" t="str">
         <v>Stylesheet</v>
@@ -3488,16 +3488,16 @@
         <v>text/css</v>
       </c>
       <c r="E112">
-        <v>1136</v>
+        <v>797</v>
       </c>
       <c r="F112">
-        <v>3044</v>
+        <v>1957</v>
       </c>
       <c r="G112">
-        <v>0.0003303635679999999</v>
+        <v>0.00023177796099999997</v>
       </c>
       <c r="H112">
-        <v>0.0004351804704</v>
+        <v>0.0003053158758</v>
       </c>
     </row>
     <row r="113">
@@ -3505,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=lightbox&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=signature&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
       </c>
       <c r="C113" t="str">
         <v>Stylesheet</v>
@@ -3514,16 +3514,16 @@
         <v>text/css</v>
       </c>
       <c r="E113">
-        <v>27628</v>
+        <v>6164</v>
       </c>
       <c r="F113">
-        <v>49533</v>
+        <v>43867</v>
       </c>
       <c r="G113">
-        <v>0.008034581564</v>
+        <v>0.0017925713319999997</v>
       </c>
       <c r="H113">
-        <v>0.0105837729192</v>
+        <v>0.0023613137496</v>
       </c>
     </row>
     <row r="114">
@@ -3531,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Default/assets/css/themes/default/default.css?v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/css/enebakk.css?v=v17.9.04283</v>
       </c>
       <c r="C114" t="str">
         <v>Stylesheet</v>
@@ -3540,16 +3540,16 @@
         <v>text/css</v>
       </c>
       <c r="E114">
-        <v>797</v>
+        <v>19337</v>
       </c>
       <c r="F114">
-        <v>1957</v>
+        <v>111006</v>
       </c>
       <c r="G114">
-        <v>0.00023177796099999997</v>
+        <v>0.005623450980999999</v>
       </c>
       <c r="H114">
-        <v>0.0003053158758</v>
+        <v>0.007407645031800003</v>
       </c>
     </row>
     <row r="115">
@@ -3557,25 +3557,25 @@
         <v>3</v>
       </c>
       <c r="B115" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/StyleHandler.ashx?bundle=signature&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-N27G0MY2MK</v>
       </c>
       <c r="C115" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D115" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E115">
-        <v>6164</v>
+        <v>146849</v>
       </c>
       <c r="F115">
-        <v>43867</v>
+        <v>432370</v>
       </c>
       <c r="G115">
-        <v>0.0017925713319999997</v>
+        <v>0.04270559823699999</v>
       </c>
       <c r="H115">
-        <v>0.0023613137496</v>
+        <v>0.0562551205086</v>
       </c>
     </row>
     <row r="116">
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="B116" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/css/enebakk.css?v=v17.9.04283</v>
+        <v>https://www.enebakk.kommune.no/css/css.ashx?style=artikkel</v>
       </c>
       <c r="C116" t="str">
         <v>Stylesheet</v>
@@ -3592,16 +3592,16 @@
         <v>text/css</v>
       </c>
       <c r="E116">
-        <v>19337</v>
+        <v>7080</v>
       </c>
       <c r="F116">
-        <v>111006</v>
+        <v>21639</v>
       </c>
       <c r="G116">
-        <v>0.005623450980999999</v>
+        <v>0.0020589560399999996</v>
       </c>
       <c r="H116">
-        <v>0.007407645031800003</v>
+        <v>0.0027122163120000004</v>
       </c>
     </row>
     <row r="117">
@@ -3609,25 +3609,25 @@
         <v>3</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-N27G0MY2MK</v>
+        <v>https://www.enebakk.kommune.no/css/css.ashx?style=login</v>
       </c>
       <c r="C117" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D117" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E117">
-        <v>147067</v>
+        <v>3657</v>
       </c>
       <c r="F117">
-        <v>432895</v>
+        <v>5649</v>
       </c>
       <c r="G117">
-        <v>0.04276899547099999</v>
+        <v>0.0010635031409999998</v>
       </c>
       <c r="H117">
-        <v>0.0563386322538</v>
+        <v>0.0014009286798000002</v>
       </c>
     </row>
     <row r="118">
@@ -3635,25 +3635,25 @@
         <v>3</v>
       </c>
       <c r="B118" t="str">
-        <v>https://www.enebakk.kommune.no/css/css.ashx?style=artikkel</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i361f84a6-a9b4-48c0-8c08-89213d2964ea/498fdenebakk-logo-sekundar-mork.svg</v>
       </c>
       <c r="C118" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D118" t="str">
-        <v>text/css</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E118">
-        <v>7080</v>
+        <v>9821</v>
       </c>
       <c r="F118">
-        <v>21639</v>
+        <v>9419</v>
       </c>
       <c r="G118">
-        <v>0.0020589560399999996</v>
+        <v>0.002856074473</v>
       </c>
       <c r="H118">
-        <v>0.0027122163120000004</v>
+        <v>0.0037622424293999998</v>
       </c>
     </row>
     <row r="119">
@@ -3661,25 +3661,25 @@
         <v>3</v>
       </c>
       <c r="B119" t="str">
-        <v>https://www.enebakk.kommune.no/css/css.ashx?style=login</v>
+        <v>https://www.enebakk.kommune.no/WebResource.axd?d=7rPTPPhSWcuL8OZTfbYszfLlE1LYVFB0bYY1lR1XAYPmQhFMz6H9yiXe6CZz0GvM5ytVvLRY_hpmJYmCxEh2bCKxGAh8ApoDvAvE0duQInE1&amp;t=638901608248157332</v>
       </c>
       <c r="C119" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D119" t="str">
-        <v>text/css</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E119">
-        <v>3657</v>
+        <v>6354</v>
       </c>
       <c r="F119">
-        <v>5649</v>
+        <v>23063</v>
       </c>
       <c r="G119">
-        <v>0.0010635031409999998</v>
+        <v>0.0018478258019999998</v>
       </c>
       <c r="H119">
-        <v>0.0014009286798000002</v>
+        <v>0.0024340992156</v>
       </c>
     </row>
     <row r="120">
@@ -3687,25 +3687,25 @@
         <v>3</v>
       </c>
       <c r="B120" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i361f84a6-a9b4-48c0-8c08-89213d2964ea/498fdenebakk-logo-sekundar-mork.svg</v>
+        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/ScriptHandler.ashx?bundle=lightbox&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
       </c>
       <c r="C120" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D120" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E120">
-        <v>9821</v>
+        <v>10175</v>
       </c>
       <c r="F120">
-        <v>9419</v>
+        <v>43086</v>
       </c>
       <c r="G120">
-        <v>0.002856074473</v>
+        <v>0.0029590222749999997</v>
       </c>
       <c r="H120">
-        <v>0.0037622424293999998</v>
+        <v>0.0038978532450000005</v>
       </c>
     </row>
     <row r="121">
@@ -3713,25 +3713,25 @@
         <v>3</v>
       </c>
       <c r="B121" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i77a9ca57-bf72-47b4-8a46-289330d941c8/w300/k89cf5ad3abd9/img_0626.JPG</v>
+        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/TranslationHandler.ashx?portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
       </c>
       <c r="C121" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D121" t="str">
-        <v>image/jpeg</v>
+        <v>text/javascript</v>
       </c>
       <c r="E121">
-        <v>14370</v>
+        <v>1343</v>
       </c>
       <c r="F121">
-        <v>13993</v>
+        <v>3344</v>
       </c>
       <c r="G121">
-        <v>0.00417898281</v>
+        <v>0.00039056185899999997</v>
       </c>
       <c r="H121">
-        <v>0.005504879718</v>
+        <v>0.0005144783202000002</v>
       </c>
     </row>
     <row r="122">
@@ -3739,25 +3739,25 @@
         <v>3</v>
       </c>
       <c r="B122" t="str">
-        <v>https://www.enebakk.kommune.no/WebResource.axd?d=7rPTPPhSWcuL8OZTfbYszfLlE1LYVFB0bYY1lR1XAYPmQhFMz6H9yiXe6CZz0GvM5ytVvLRY_hpmJYmCxEh2bCKxGAh8ApoDvAvE0duQInE1&amp;t=638901608248157332</v>
+        <v>https://www.enebakk.kommune.no/script/jQuery/jquery.cookie.js</v>
       </c>
       <c r="C122" t="str">
         <v>Script</v>
       </c>
       <c r="D122" t="str">
-        <v>application/x-javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E122">
-        <v>6354</v>
+        <v>1237</v>
       </c>
       <c r="F122">
-        <v>23063</v>
+        <v>1576</v>
       </c>
       <c r="G122">
-        <v>0.0018478258019999998</v>
+        <v>0.00035973568099999996</v>
       </c>
       <c r="H122">
-        <v>0.0024340992156</v>
+        <v>0.00047387169180000016</v>
       </c>
     </row>
     <row r="123">
@@ -3765,25 +3765,25 @@
         <v>3</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/ScriptHandler.ashx?bundle=lightbox&amp;portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/js/scripts.js?v=v17.9.04283</v>
       </c>
       <c r="C123" t="str">
         <v>Script</v>
       </c>
       <c r="D123" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E123">
-        <v>10175</v>
+        <v>1389</v>
       </c>
       <c r="F123">
-        <v>43086</v>
+        <v>2185</v>
       </c>
       <c r="G123">
-        <v>0.0029590222749999997</v>
+        <v>0.00040393925699999997</v>
       </c>
       <c r="H123">
-        <v>0.0038978532450000005</v>
+        <v>0.0005321000646</v>
       </c>
     </row>
     <row r="124">
@@ -3791,25 +3791,25 @@
         <v>3</v>
       </c>
       <c r="B124" t="str">
-        <v>https://www.enebakk.kommune.no/Maler/Standard/Handlers/TranslationHandler.ashx?portalID=1&amp;sprakID=1&amp;designID=1&amp;v=17.9.4283</v>
+        <v>https://www.enebakk.kommune.no/script/js/jsinfo.min.js?v=1.1</v>
       </c>
       <c r="C124" t="str">
         <v>Script</v>
       </c>
       <c r="D124" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E124">
-        <v>1343</v>
+        <v>2622</v>
       </c>
       <c r="F124">
-        <v>3344</v>
+        <v>5038</v>
       </c>
       <c r="G124">
-        <v>0.00039056185899999997</v>
+        <v>0.000762511686</v>
       </c>
       <c r="H124">
-        <v>0.0005144783202000002</v>
+        <v>0.0010044394308</v>
       </c>
     </row>
     <row r="125">
@@ -3817,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="B125" t="str">
-        <v>https://www.enebakk.kommune.no/script/jQuery/jquery.cookie.js</v>
+        <v>https://www.enebakk.kommune.no/script/js/beredskap.js</v>
       </c>
       <c r="C125" t="str">
         <v>Script</v>
@@ -3826,16 +3826,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E125">
-        <v>1237</v>
+        <v>2312</v>
       </c>
       <c r="F125">
-        <v>1576</v>
+        <v>4807</v>
       </c>
       <c r="G125">
-        <v>0.00035973568099999996</v>
+        <v>0.000672359656</v>
       </c>
       <c r="H125">
-        <v>0.00047387169180000016</v>
+        <v>0.0008856841968000002</v>
       </c>
     </row>
     <row r="126">
@@ -3843,7 +3843,7 @@
         <v>3</v>
       </c>
       <c r="B126" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/js/scripts.js?v=v17.9.04283</v>
+        <v>https://www.enebakk.kommune.no/script/eventbus/eventbus.min.js</v>
       </c>
       <c r="C126" t="str">
         <v>Script</v>
@@ -3852,16 +3852,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E126">
-        <v>1389</v>
+        <v>894</v>
       </c>
       <c r="F126">
-        <v>2185</v>
+        <v>1036</v>
       </c>
       <c r="G126">
-        <v>0.00040393925699999997</v>
+        <v>0.00025998682199999994</v>
       </c>
       <c r="H126">
-        <v>0.0005321000646</v>
+        <v>0.0003424747716000001</v>
       </c>
     </row>
     <row r="127">
@@ -3869,7 +3869,7 @@
         <v>3</v>
       </c>
       <c r="B127" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/jsinfo.min.js?v=1.1</v>
+        <v>https://www.enebakk.kommune.no/templates/design/assets/js/common.js?v=v17.9.04283</v>
       </c>
       <c r="C127" t="str">
         <v>Script</v>
@@ -3878,16 +3878,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E127">
-        <v>2622</v>
+        <v>665</v>
       </c>
       <c r="F127">
-        <v>5038</v>
+        <v>309</v>
       </c>
       <c r="G127">
-        <v>0.000762511686</v>
+        <v>0.000193390645</v>
       </c>
       <c r="H127">
-        <v>0.0010044394308</v>
+        <v>0.00025474913100000004</v>
       </c>
     </row>
     <row r="128">
@@ -3895,7 +3895,7 @@
         <v>3</v>
       </c>
       <c r="B128" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/beredskap.js</v>
+        <v>https://www.enebakk.kommune.no/script/js/login.e9fcj.js</v>
       </c>
       <c r="C128" t="str">
         <v>Script</v>
@@ -3904,16 +3904,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E128">
-        <v>2312</v>
+        <v>986</v>
       </c>
       <c r="F128">
-        <v>4807</v>
+        <v>1511</v>
       </c>
       <c r="G128">
-        <v>0.000672359656</v>
+        <v>0.00028674161799999994</v>
       </c>
       <c r="H128">
-        <v>0.0008856841968000002</v>
+        <v>0.0003777182604</v>
       </c>
     </row>
     <row r="129">
@@ -3921,25 +3921,25 @@
         <v>3</v>
       </c>
       <c r="B129" t="str">
-        <v>https://www.enebakk.kommune.no/script/eventbus/eventbus.min.js</v>
+        <v>https://fonts.googleapis.com/css2?family=Archivo:wght@400;500;600;700;800;900&amp;display=swap</v>
       </c>
       <c r="C129" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D129" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E129">
-        <v>894</v>
+        <v>1072</v>
       </c>
       <c r="F129">
-        <v>1036</v>
+        <v>8190</v>
       </c>
       <c r="G129">
-        <v>0.00025998682199999994</v>
+        <v>0.00031175153599999995</v>
       </c>
       <c r="H129">
-        <v>0.0003424747716000001</v>
+        <v>0.00041066326080000005</v>
       </c>
     </row>
     <row r="130">
@@ -3947,25 +3947,25 @@
         <v>3</v>
       </c>
       <c r="B130" t="str">
-        <v>https://www.enebakk.kommune.no/templates/design/assets/js/common.js?v=v17.9.04283</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.css</v>
       </c>
       <c r="C130" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D130" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E130">
-        <v>665</v>
+        <v>14043</v>
       </c>
       <c r="F130">
-        <v>309</v>
+        <v>110438</v>
       </c>
       <c r="G130">
-        <v>0.000193390645</v>
+        <v>0.004083886958999999</v>
       </c>
       <c r="H130">
-        <v>0.00025474913100000004</v>
+        <v>0.005379612100200001</v>
       </c>
     </row>
     <row r="131">
@@ -3973,25 +3973,22 @@
         <v>3</v>
       </c>
       <c r="B131" t="str">
-        <v>https://www.enebakk.kommune.no/script/js/login.e9fcj.js</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5bc1v9117441254za200zd9117441254&amp;_p=1763140506714&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1254593458.1763140507&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~105322303~115583767~115938465~115938468~116217636~116217638&amp;sid=1763140506&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=1262</v>
       </c>
       <c r="C131" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D131" t="str">
-        <v>application/javascript</v>
+        <v>text/plain</v>
       </c>
       <c r="E131">
-        <v>986</v>
-      </c>
-      <c r="F131">
-        <v>1511</v>
+        <v>554</v>
       </c>
       <c r="G131">
-        <v>0.00028674161799999994</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H131">
-        <v>0.0003777182604</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="132">
@@ -3999,25 +3996,25 @@
         <v>3</v>
       </c>
       <c r="B132" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Archivo:wght@400;500;600;700;800;900&amp;display=swap</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i538f6d04-8d45-48e2-88d7-f99cfb90ae07/w2329/h1865/q508/keb12434e464f/20221029_ignagard-sykehjem_023-2.jpg</v>
       </c>
       <c r="C132" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D132" t="str">
-        <v>text/css</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E132">
-        <v>1072</v>
+        <v>679489</v>
       </c>
       <c r="F132">
-        <v>8190</v>
+        <v>679087</v>
       </c>
       <c r="G132">
-        <v>0.00031175153599999995</v>
+        <v>0.19760423455699996</v>
       </c>
       <c r="H132">
-        <v>0.00041066326080000005</v>
+        <v>0.26029959740460007</v>
       </c>
     </row>
     <row r="133">
@@ -4025,25 +4022,25 @@
         <v>3</v>
       </c>
       <c r="B133" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.css</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i7f526b2f-cb4b-4c99-b507-45e904a9e219/w1088/h610/q806/k0b1ff9a33b95/flateby-sentrum-syd.png</v>
       </c>
       <c r="C133" t="str">
-        <v>Stylesheet</v>
+        <v>Image</v>
       </c>
       <c r="D133" t="str">
-        <v>text/css</v>
+        <v>image/png</v>
       </c>
       <c r="E133">
-        <v>14042</v>
+        <v>1233227</v>
       </c>
       <c r="F133">
-        <v>110438</v>
+        <v>1232838</v>
       </c>
       <c r="G133">
-        <v>0.004083596145999999</v>
+        <v>0.358638443551</v>
       </c>
       <c r="H133">
-        <v>0.005379229018800001</v>
+        <v>0.47242632567779996</v>
       </c>
     </row>
     <row r="134">
@@ -4051,22 +4048,25 @@
         <v>3</v>
       </c>
       <c r="B134" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5ba0h2v9117441254za200zd9117441254&amp;_p=1762813827203&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=2114035471.1762813827&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528500~104684208~104684211~115583767~115616985~115938466~115938469~116217636~116217638&amp;sid=1762813827&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=1707</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i8818d1f0-7dc7-44e6-b5e8-dba9699f99a2/w1088/h610/q477/k3ab18654a197/larer-pa-kibus.JPG</v>
       </c>
       <c r="C134" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D134" t="str">
-        <v>text/plain</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E134">
-        <v>554</v>
+        <v>97686</v>
+      </c>
+      <c r="F134">
+        <v>97303</v>
       </c>
       <c r="G134">
-        <v>0.00016111040199999997</v>
+        <v>0.028408358717999998</v>
       </c>
       <c r="H134">
-        <v>0.0002122270956</v>
+        <v>0.037421689640400005</v>
       </c>
     </row>
     <row r="135">
@@ -4074,25 +4074,25 @@
         <v>3</v>
       </c>
       <c r="B135" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/i538f6d04-8d45-48e2-88d7-f99cfb90ae07/w2329/h1865/q508/keb12434e464f/20221029_ignagard-sykehjem_023-2.jpg</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/enebakk-illustrasjon.svg</v>
       </c>
       <c r="C135" t="str">
         <v>Image</v>
       </c>
       <c r="D135" t="str">
-        <v>image/jpeg</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E135">
-        <v>679489</v>
+        <v>174558</v>
       </c>
       <c r="F135">
-        <v>679087</v>
+        <v>174250</v>
       </c>
       <c r="G135">
-        <v>0.19760423455699996</v>
+        <v>0.05076373565399999</v>
       </c>
       <c r="H135">
-        <v>0.26029959740460007</v>
+        <v>0.0668699230212</v>
       </c>
     </row>
     <row r="136">
@@ -4100,25 +4100,25 @@
         <v>3</v>
       </c>
       <c r="B136" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i7f526b2f-cb4b-4c99-b507-45e904a9e219/w1088/h610/q806/k0b1ff9a33b95/flateby-sentrum-syd.png</v>
+        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/footer-badge.svg</v>
       </c>
       <c r="C136" t="str">
         <v>Image</v>
       </c>
       <c r="D136" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E136">
-        <v>1233227</v>
+        <v>8489</v>
       </c>
       <c r="F136">
-        <v>1232838</v>
+        <v>8183</v>
       </c>
       <c r="G136">
-        <v>0.358638443551</v>
+        <v>0.0024687115569999997</v>
       </c>
       <c r="H136">
-        <v>0.47242632567779996</v>
+        <v>0.0032519780046000005</v>
       </c>
     </row>
     <row r="137">
@@ -4126,25 +4126,25 @@
         <v>3</v>
       </c>
       <c r="B137" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/e1/i8818d1f0-7dc7-44e6-b5e8-dba9699f99a2/w1088/h610/q477/k3ab18654a197/larer-pa-kibus.JPG</v>
+        <v>https://fonts.gstatic.com/s/archivo/v25/k3kPo8UDI-1M0wlSV9XAw6lQkqWY8Q82sLydOxKsv4Rn.woff2</v>
       </c>
       <c r="C137" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D137" t="str">
-        <v>image/jpeg</v>
+        <v>font/woff2</v>
       </c>
       <c r="E137">
-        <v>97686</v>
+        <v>34972</v>
       </c>
       <c r="F137">
-        <v>97303</v>
+        <v>34940</v>
       </c>
       <c r="G137">
-        <v>0.028408358717999998</v>
+        <v>0.010170312235999998</v>
       </c>
       <c r="H137">
-        <v>0.037421689640400005</v>
+        <v>0.013397122720800002</v>
       </c>
     </row>
     <row r="138">
@@ -4152,25 +4152,25 @@
         <v>3</v>
       </c>
       <c r="B138" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/enebakk-illustrasjon.svg</v>
+        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.woff2?t=1590207869815</v>
       </c>
       <c r="C138" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D138" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E138">
-        <v>174558</v>
+        <v>125643</v>
       </c>
       <c r="F138">
-        <v>174250</v>
+        <v>125268</v>
       </c>
       <c r="G138">
-        <v>0.05076373565399999</v>
+        <v>0.03653861775899999</v>
       </c>
       <c r="H138">
-        <v>0.0668699230212</v>
+        <v>0.0481314963402</v>
       </c>
     </row>
     <row r="139">
@@ -4178,25 +4178,25 @@
         <v>3</v>
       </c>
       <c r="B139" t="str">
-        <v>https://www.enebakk.kommune.no/Design/enebakk_kommune/enebakk_kommune/v2022/assets/images/footer-badge.svg</v>
+        <v>https://www.enebakk.kommune.no/api/presentation/requestlog</v>
       </c>
       <c r="C139" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D139" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E139">
-        <v>8489</v>
+        <v>326</v>
       </c>
       <c r="F139">
-        <v>8183</v>
+        <v>72</v>
       </c>
       <c r="G139">
-        <v>0.0024687115569999997</v>
+        <v>0.00009480503799999998</v>
       </c>
       <c r="H139">
-        <v>0.0032519780046000005</v>
+        <v>0.0001248845364</v>
       </c>
     </row>
     <row r="140">
@@ -4204,25 +4204,25 @@
         <v>3</v>
       </c>
       <c r="B140" t="str">
-        <v>https://fonts.gstatic.com/s/archivo/v25/k3kPo8UDI-1M0wlSV9XAw6lQkqWY8Q82sLydOxKsv4Rn.woff2</v>
+        <v>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+C…</v>
       </c>
       <c r="C140" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D140" t="str">
-        <v>font/woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E140">
-        <v>34972</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>34940</v>
+        <v>3657</v>
       </c>
       <c r="G140">
-        <v>0.010170312235999998</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>0.013397122720800002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4230,25 +4230,25 @@
         <v>3</v>
       </c>
       <c r="B141" t="str">
-        <v>https://cdn.jsdelivr.net/npm/remixicon@2.5.0/fonts/remixicon.woff2?t=1590207869815</v>
+        <v>data:font/truetype;charset=utf-8;base64,d09GRgABAAAAAHtoAAsAAAAAexwAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAB…</v>
       </c>
       <c r="C141" t="str">
         <v>Font</v>
       </c>
       <c r="D141" t="str">
-        <v>font/woff2</v>
+        <v>font/truetype</v>
       </c>
       <c r="E141">
-        <v>125643</v>
+        <v>31592</v>
       </c>
       <c r="F141">
-        <v>125268</v>
+        <v>31592</v>
       </c>
       <c r="G141">
-        <v>0.03653861775899999</v>
+        <v>0.009187364295999999</v>
       </c>
       <c r="H141">
-        <v>0.0481314963402</v>
+        <v>0.0121023075888</v>
       </c>
     </row>
     <row r="142">
@@ -4256,108 +4256,30 @@
         <v>3</v>
       </c>
       <c r="B142" t="str">
-        <v>https://www.enebakk.kommune.no/api/presentation/requestlog</v>
+        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/ic063abb1-5ef3-4dd9-976d-22dc43f2be5e/a308fenebakk-favikon.png</v>
       </c>
       <c r="C142" t="str">
-        <v>Fetch</v>
+        <v>Other</v>
       </c>
       <c r="D142" t="str">
-        <v>application/json</v>
+        <v>image/png</v>
       </c>
       <c r="E142">
-        <v>326</v>
+        <v>13997</v>
       </c>
       <c r="F142">
-        <v>72</v>
+        <v>13609</v>
       </c>
       <c r="G142">
-        <v>0.00009480503799999998</v>
+        <v>0.004070509561</v>
       </c>
       <c r="H142">
-        <v>0.0001248845364</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>3</v>
-      </c>
-      <c r="B143" t="str">
-        <v>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+C…</v>
-      </c>
-      <c r="C143" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D143" t="str">
-        <v>image/svg+xml</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>3657</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>3</v>
-      </c>
-      <c r="B144" t="str">
-        <v>data:font/truetype;charset=utf-8;base64,d09GRgABAAAAAHtoAAsAAAAAexwAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAB…</v>
-      </c>
-      <c r="C144" t="str">
-        <v>Font</v>
-      </c>
-      <c r="D144" t="str">
-        <v>font/truetype</v>
-      </c>
-      <c r="E144">
-        <v>31592</v>
-      </c>
-      <c r="F144">
-        <v>31592</v>
-      </c>
-      <c r="G144">
-        <v>0.009187364295999999</v>
-      </c>
-      <c r="H144">
-        <v>0.0121023075888</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>3</v>
-      </c>
-      <c r="B145" t="str">
-        <v>https://www.enebakk.kommune.no/handlers/bv.ashx/ic063abb1-5ef3-4dd9-976d-22dc43f2be5e/a308fenebakk-favikon.png</v>
-      </c>
-      <c r="C145" t="str">
-        <v>Other</v>
-      </c>
-      <c r="D145" t="str">
-        <v>image/png</v>
-      </c>
-      <c r="E145">
-        <v>13997</v>
-      </c>
-      <c r="F145">
-        <v>13609</v>
-      </c>
-      <c r="G145">
-        <v>0.004070509561</v>
-      </c>
-      <c r="H145">
         <v>0.0053619903558</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H145"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H142"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4391,10 +4313,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>54028</v>
+        <v>53365</v>
       </c>
       <c r="D2">
-        <v>159171</v>
+        <v>158184</v>
       </c>
     </row>
     <row r="3">
@@ -4405,7 +4327,7 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>397326</v>
+        <v>397328</v>
       </c>
       <c r="D3">
         <v>2059257</v>
@@ -4419,10 +4341,10 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>2031342</v>
+        <v>2030695</v>
       </c>
       <c r="D4">
-        <v>7034727</v>
+        <v>7033172</v>
       </c>
     </row>
     <row r="5">
@@ -4430,13 +4352,13 @@
         <v>Image</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>6652920</v>
+        <v>6609810</v>
       </c>
       <c r="D5">
-        <v>6656190</v>
+        <v>6614211</v>
       </c>
     </row>
     <row r="6">
@@ -4514,13 +4436,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3252285</v>
+        <v>3237504</v>
       </c>
       <c r="C2">
-        <v>0.9458067577049999</v>
+        <v>0.941508250752</v>
       </c>
       <c r="D2">
-        <v>1.2458898909990002</v>
+        <v>1.2402275648256</v>
       </c>
     </row>
     <row r="3">
@@ -4528,13 +4450,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3252295</v>
+        <v>3237452</v>
       </c>
       <c r="C3">
-        <v>0.9458096658349999</v>
+        <v>0.9414931284759999</v>
       </c>
       <c r="D3">
-        <v>1.2458937218130002</v>
+        <v>1.2402076445928</v>
       </c>
     </row>
     <row r="4">
@@ -4542,13 +4464,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3252288</v>
+        <v>3237494</v>
       </c>
       <c r="C4">
-        <v>0.9458076301439999</v>
+        <v>0.9415053426219999</v>
       </c>
       <c r="D4">
-        <v>1.2458910402432</v>
+        <v>1.2402237340116</v>
       </c>
     </row>
     <row r="5">
@@ -4556,13 +4478,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>3252288</v>
+        <v>3237494</v>
       </c>
       <c r="C5">
-        <v>0.9458076301439999</v>
+        <v>0.9415053426219999</v>
       </c>
       <c r="D5">
-        <v>1.2458910402432</v>
+        <v>1.2402237340116</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.enebakk.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.enebakk.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13676.476999999995</v>
+        <v>13847.900000000001</v>
       </c>
       <c r="C2">
-        <v>6370.362000000001</v>
+        <v>6225.509500000001</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>13910.238499999998</v>
+        <v>14104.930400000001</v>
       </c>
       <c r="F2">
-        <v>105.5</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7471.534943471009</v>
+        <v>6225.509500000001</v>
       </c>
       <c r="I2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>3237504</v>
+        <v>3237441</v>
       </c>
       <c r="K2">
         <v>47</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13662.220000000001</v>
+        <v>13937.0485</v>
       </c>
       <c r="C3">
-        <v>6259.244499999999</v>
+        <v>6294.952</v>
       </c>
       <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>14194.87915</v>
+      </c>
+      <c r="F3">
         <v>46</v>
-      </c>
-      <c r="E3">
-        <v>13909.445600000003</v>
-      </c>
-      <c r="F3">
-        <v>76</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6259.244499999999</v>
+        <v>6294.952</v>
       </c>
       <c r="I3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>3237452</v>
+        <v>3237468</v>
       </c>
       <c r="K3">
         <v>47</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13737.0045</v>
+        <v>13828.408</v>
       </c>
       <c r="C4">
-        <v>6257.005000000001</v>
+        <v>6282.33</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="E4">
-        <v>13991.44275</v>
+        <v>14085.147999999997</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7296.138123997267</v>
+        <v>6282.33</v>
       </c>
       <c r="I4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J4">
-        <v>3237494</v>
+        <v>3239563</v>
       </c>
       <c r="K4">
         <v>47</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>13676.476999999995</v>
+        <v>13847.900000000001</v>
       </c>
       <c r="C5">
-        <v>6259.244499999999</v>
+        <v>6282.33</v>
       </c>
       <c r="D5">
         <v>56</v>
       </c>
       <c r="E5">
-        <v>13910.238499999998</v>
+        <v>14104.930400000001</v>
       </c>
       <c r="F5">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7296.138123997267</v>
+        <v>6282.33</v>
       </c>
       <c r="I5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>3237494</v>
+        <v>3237468</v>
       </c>
       <c r="K5">
         <v>47</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>17800</v>
+        <v>17768</v>
       </c>
       <c r="F2">
         <v>52728</v>
       </c>
       <c r="G2">
-        <v>0.005176471399999999</v>
+        <v>0.005167165384</v>
       </c>
       <c r="H2">
-        <v>0.00681884892</v>
+        <v>0.006806590315200001</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         <v>text/css</v>
       </c>
       <c r="E9">
-        <v>19904</v>
+        <v>19905</v>
       </c>
       <c r="F9">
         <v>134048</v>
       </c>
       <c r="G9">
-        <v>0.005788341951999999</v>
+        <v>0.005788632764999999</v>
       </c>
       <c r="H9">
-        <v>0.007624852185600002</v>
+        <v>0.007625235267000001</v>
       </c>
     </row>
     <row r="10">
@@ -1128,16 +1128,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E21">
-        <v>146860</v>
+        <v>146847</v>
       </c>
       <c r="F21">
-        <v>432390</v>
+        <v>432370</v>
       </c>
       <c r="G21">
-        <v>0.042708797179999994</v>
+        <v>0.042705016611</v>
       </c>
       <c r="H21">
-        <v>0.05625933440400001</v>
+        <v>0.05625435434579999</v>
       </c>
     </row>
     <row r="22">
@@ -1492,16 +1492,16 @@
         <v>text/css</v>
       </c>
       <c r="E35">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="F35">
         <v>8190</v>
       </c>
       <c r="G35">
-        <v>0.00031175153599999995</v>
+        <v>0.000312623975</v>
       </c>
       <c r="H35">
-        <v>0.00041066326080000005</v>
+        <v>0.00041181250500000005</v>
       </c>
     </row>
     <row r="36">
@@ -1518,16 +1518,16 @@
         <v>text/css</v>
       </c>
       <c r="E36">
-        <v>14043</v>
+        <v>14019</v>
       </c>
       <c r="F36">
         <v>110438</v>
       </c>
       <c r="G36">
-        <v>0.004083886958999999</v>
+        <v>0.004076907447</v>
       </c>
       <c r="H36">
-        <v>0.005379612100200001</v>
+        <v>0.005370418146600001</v>
       </c>
     </row>
     <row r="37">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5bc1v9117441254za200zd9117441254&amp;_p=1763140479435&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1538566943.1763140479&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105391252~115583767~115938466~115938468~116217636~116217638~116251935~116251937&amp;sid=1763140479&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=1707</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5bc1h1v9117441254za200zd9117441254&amp;_p=1763142888484&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=124146615.1763142888&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~115583767~115938465~115938468~116217636~116217638~116474636&amp;sid=1763142888&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=455</v>
       </c>
       <c r="C37" t="str">
         <v>Fetch</v>
@@ -1544,13 +1544,13 @@
         <v>text/plain</v>
       </c>
       <c r="E37">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G37">
-        <v>0.00016111040199999997</v>
+        <v>0.000161401215</v>
       </c>
       <c r="H37">
-        <v>0.0002122270956</v>
+        <v>0.000212610177</v>
       </c>
     </row>
     <row r="38">
@@ -1723,16 +1723,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E44">
-        <v>125643</v>
+        <v>125644</v>
       </c>
       <c r="F44">
         <v>125268</v>
       </c>
       <c r="G44">
-        <v>0.03653861775899999</v>
+        <v>0.036538908572</v>
       </c>
       <c r="H44">
-        <v>0.0481314963402</v>
+        <v>0.048131879421600014</v>
       </c>
     </row>
     <row r="45">
@@ -1853,16 +1853,16 @@
         <v>text/html</v>
       </c>
       <c r="E49">
-        <v>17764</v>
+        <v>17787</v>
       </c>
       <c r="F49">
         <v>52728</v>
       </c>
       <c r="G49">
-        <v>0.005166002132</v>
+        <v>0.0051726908309999995</v>
       </c>
       <c r="H49">
-        <v>0.006805057989600001</v>
+        <v>0.006813868861800001</v>
       </c>
     </row>
     <row r="50">
@@ -2347,16 +2347,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E68">
-        <v>146845</v>
+        <v>146861</v>
       </c>
       <c r="F68">
-        <v>432370</v>
+        <v>432400</v>
       </c>
       <c r="G68">
-        <v>0.042704434985</v>
+        <v>0.042709087992999994</v>
       </c>
       <c r="H68">
-        <v>0.056253588183000004</v>
+        <v>0.056259717485400006</v>
       </c>
     </row>
     <row r="69">
@@ -2737,16 +2737,16 @@
         <v>text/css</v>
       </c>
       <c r="E83">
-        <v>14042</v>
+        <v>14019</v>
       </c>
       <c r="F83">
         <v>110438</v>
       </c>
       <c r="G83">
-        <v>0.004083596145999999</v>
+        <v>0.004076907447</v>
       </c>
       <c r="H83">
-        <v>0.005379229018800001</v>
+        <v>0.005370418146600001</v>
       </c>
     </row>
     <row r="84">
@@ -2754,7 +2754,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5bc1h1v9117441254za200zd9117441254&amp;_p=1763140493566&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=787716257.1763140494&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~105322302~115583767~115616985~115938465~115938469~116217636~116217638~116474637&amp;sid=1763140493&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=1106</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5bc1v9117441254za200zd9117441254&amp;_p=1763142900994&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1035456487.1763142901&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=102015666~103116026~103200004~104527906~104528500~104684208~104684211~105322302~105446120~115583767~115938466~115938468~116217636~116217638~116251935~116251937~116474637&amp;sid=1763142901&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=509</v>
       </c>
       <c r="C84" t="str">
         <v>Fetch</v>
@@ -3072,16 +3072,16 @@
         <v>text/html</v>
       </c>
       <c r="E96">
-        <v>17801</v>
+        <v>19883</v>
       </c>
       <c r="F96">
-        <v>52728</v>
+        <v>54624</v>
       </c>
       <c r="G96">
-        <v>0.005176762212999999</v>
+        <v>0.0057822348789999985</v>
       </c>
       <c r="H96">
-        <v>0.006819232001400001</v>
+        <v>0.007616807476200001</v>
       </c>
     </row>
     <row r="97">
@@ -3566,16 +3566,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E115">
-        <v>146849</v>
+        <v>146860</v>
       </c>
       <c r="F115">
-        <v>432370</v>
+        <v>432414</v>
       </c>
       <c r="G115">
-        <v>0.04270559823699999</v>
+        <v>0.042708797179999994</v>
       </c>
       <c r="H115">
-        <v>0.0562551205086</v>
+        <v>0.05625933440400001</v>
       </c>
     </row>
     <row r="116">
@@ -3956,16 +3956,16 @@
         <v>text/css</v>
       </c>
       <c r="E130">
-        <v>14043</v>
+        <v>14019</v>
       </c>
       <c r="F130">
         <v>110438</v>
       </c>
       <c r="G130">
-        <v>0.004083886958999999</v>
+        <v>0.004076907447</v>
       </c>
       <c r="H130">
-        <v>0.005379612100200001</v>
+        <v>0.005370418146600001</v>
       </c>
     </row>
     <row r="131">
@@ -3973,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="B131" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5bc1v9117441254za200zd9117441254&amp;_p=1763140506714&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1254593458.1763140507&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~105322303~115583767~115938465~115938468~116217636~116217638&amp;sid=1763140506&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=1262</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-N27G0MY2MK&amp;gtm=45je5bc1v9117441254za200zd9117441254&amp;_p=1763142914802&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=837134741.1763142915&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938465~115938468~116194002~116217636~116217638~116251938~116251940&amp;sid=1763142914&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.enebakk.kommune.no%2F&amp;dt=&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=799</v>
       </c>
       <c r="C131" t="str">
         <v>Fetch</v>
@@ -4313,10 +4313,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>53365</v>
+        <v>55438</v>
       </c>
       <c r="D2">
-        <v>158184</v>
+        <v>160080</v>
       </c>
     </row>
     <row r="3">
@@ -4327,7 +4327,7 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>397328</v>
+        <v>397261</v>
       </c>
       <c r="D3">
         <v>2059257</v>
@@ -4341,10 +4341,10 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>2030695</v>
+        <v>2030709</v>
       </c>
       <c r="D4">
-        <v>7033172</v>
+        <v>7033226</v>
       </c>
     </row>
     <row r="5">
@@ -4369,7 +4369,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="D6">
         <v>216</v>
@@ -4383,7 +4383,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>576621</v>
+        <v>576622</v>
       </c>
       <c r="D7">
         <v>575400</v>
@@ -4436,13 +4436,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3237504</v>
+        <v>3237441</v>
       </c>
       <c r="C2">
-        <v>0.941508250752</v>
+        <v>0.9414899295329998</v>
       </c>
       <c r="D2">
-        <v>1.2402275648256</v>
+        <v>1.2402034306974001</v>
       </c>
     </row>
     <row r="3">
@@ -4450,13 +4450,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3237452</v>
+        <v>3237468</v>
       </c>
       <c r="C3">
-        <v>0.9414931284759999</v>
+        <v>0.9414977814839999</v>
       </c>
       <c r="D3">
-        <v>1.2402076445928</v>
+        <v>1.2402137738952</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3237494</v>
+        <v>3239563</v>
       </c>
       <c r="C4">
-        <v>0.9415053426219999</v>
+        <v>0.9421070347189999</v>
       </c>
       <c r="D4">
-        <v>1.2402237340116</v>
+        <v>1.2410163294282</v>
       </c>
     </row>
     <row r="5">
@@ -4478,13 +4478,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>3237494</v>
+        <v>3237468</v>
       </c>
       <c r="C5">
-        <v>0.9415053426219999</v>
+        <v>0.9414977814839999</v>
       </c>
       <c r="D5">
-        <v>1.2402237340116</v>
+        <v>1.2402137738952</v>
       </c>
     </row>
   </sheetData>
